--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -12,11 +12,12 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2869,15 +2870,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2982,49 +2983,49 @@
   <dimension ref="A1:AN245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G203" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="G145" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G211" activeCellId="0" sqref="G211:G212"/>
+      <selection pane="bottomLeft" activeCell="Q185" activeCellId="0" sqref="Q185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.3441295546559"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.165991902834"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="60.5222672064777"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.5951417004049"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="90.7287449392713"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="91.587044534413"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
@@ -18095,10 +18096,10 @@
       </c>
       <c r="P185" s="10"/>
       <c r="Q185" s="7"/>
-      <c r="R185" s="7" t="s">
+      <c r="R185" s="22"/>
+      <c r="S185" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="S185" s="7"/>
       <c r="T185" s="7"/>
       <c r="U185" s="7"/>
       <c r="V185" s="7"/>
@@ -18213,7 +18214,7 @@
       <c r="AM186" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="AN186" s="22" t="n">
+      <c r="AN186" s="23" t="n">
         <v>501</v>
       </c>
     </row>
@@ -19033,7 +19034,7 @@
       <c r="AM196" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="AN196" s="22" t="n">
+      <c r="AN196" s="23" t="n">
         <v>502</v>
       </c>
     </row>
@@ -19607,7 +19608,7 @@
       <c r="AM203" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="AN203" s="22" t="n">
+      <c r="AN203" s="23" t="n">
         <v>503</v>
       </c>
     </row>
@@ -19853,7 +19854,7 @@
       <c r="AM206" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="AN206" s="22" t="n">
+      <c r="AN206" s="23" t="n">
         <v>504</v>
       </c>
     </row>
@@ -20417,7 +20418,7 @@
         <v>207</v>
       </c>
       <c r="AM213" s="7"/>
-      <c r="AN213" s="23" t="n">
+      <c r="AN213" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20443,7 +20444,7 @@
       <c r="G214" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="H214" s="24" t="s">
+      <c r="H214" s="22" t="s">
         <v>678</v>
       </c>
       <c r="I214" s="7"/>
@@ -20501,7 +20502,7 @@
         <v>208</v>
       </c>
       <c r="AM214" s="7"/>
-      <c r="AN214" s="23" t="n">
+      <c r="AN214" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20585,7 +20586,7 @@
       <c r="AM215" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="AN215" s="23" t="n">
+      <c r="AN215" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21227,7 +21228,7 @@
         <v>217</v>
       </c>
       <c r="AM223" s="7"/>
-      <c r="AN223" s="23" t="n">
+      <c r="AN223" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21303,7 +21304,7 @@
       <c r="AM224" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="AN224" s="23" t="n">
+      <c r="AN224" s="24" t="n">
         <v>312</v>
       </c>
     </row>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$2:$AN$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3346" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="790">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2230,6 +2231,9 @@
     <t xml:space="preserve">facings TCCC/40</t>
   </si>
   <si>
+    <t xml:space="preserve">Other Coolers, Cold Shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooler: Prime Position</t>
   </si>
   <si>
@@ -2249,6 +2253,9 @@
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUMMY</t>
   </si>
   <si>
     <r>
@@ -2441,6 +2448,9 @@
   </si>
   <si>
     <t xml:space="preserve">Импульсная Активация: Добрый - Яблоко - 0.33л в выпечке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dobriy 0.33 in Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -2705,8 +2715,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF579D1C"/>
-        <bgColor rgb="FF808000"/>
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2781,7 +2791,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2878,6 +2888,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2923,7 +2937,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -2946,7 +2960,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF66FFFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -2959,7 +2973,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2983,49 +2997,48 @@
   <dimension ref="A1:AN245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="G145" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q185" activeCellId="0" sqref="Q185"/>
+      <selection pane="bottomLeft" activeCell="A229" activeCellId="0" sqref="A229"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="65.3441295546559"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="60.5222672064777"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="52.5951417004049"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="91.587044534413"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="93.1943319838057"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
@@ -20310,8 +20323,8 @@
       <c r="U212" s="7"/>
       <c r="V212" s="7"/>
       <c r="W212" s="7"/>
-      <c r="X212" s="7" t="s">
-        <v>662</v>
+      <c r="X212" s="24" t="s">
+        <v>671</v>
       </c>
       <c r="Y212" s="7"/>
       <c r="Z212" s="7"/>
@@ -20357,10 +20370,10 @@
         <v>486</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>474</v>
@@ -20378,12 +20391,12 @@
       <c r="Q213" s="10"/>
       <c r="R213" s="7"/>
       <c r="S213" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T213" s="7"/>
       <c r="U213" s="7"/>
       <c r="V213" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="W213" s="7"/>
       <c r="X213" s="7" t="s">
@@ -20406,7 +20419,7 @@
       <c r="AG213" s="7"/>
       <c r="AH213" s="7"/>
       <c r="AI213" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ213" s="7" t="s">
         <v>665</v>
@@ -20418,7 +20431,7 @@
         <v>207</v>
       </c>
       <c r="AM213" s="7"/>
-      <c r="AN213" s="24" t="n">
+      <c r="AN213" s="25" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20439,15 +20452,17 @@
         <v>486</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G214" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H214" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="I214" s="7"/>
+        <v>679</v>
+      </c>
+      <c r="I214" s="22" t="s">
+        <v>680</v>
+      </c>
       <c r="J214" s="7" t="n">
         <v>15</v>
       </c>
@@ -20490,7 +20505,7 @@
       <c r="AG214" s="7"/>
       <c r="AH214" s="7"/>
       <c r="AI214" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ214" s="7" t="s">
         <v>665</v>
@@ -20502,7 +20517,7 @@
         <v>208</v>
       </c>
       <c r="AM214" s="7"/>
-      <c r="AN214" s="24" t="n">
+      <c r="AN214" s="25" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20523,10 +20538,10 @@
         <v>486</v>
       </c>
       <c r="F215" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G215" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>85</v>
@@ -20560,7 +20575,7 @@
         <v>86</v>
       </c>
       <c r="AE215" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AF215" s="9" t="n">
         <v>0.01625</v>
@@ -20572,7 +20587,7 @@
         <v>1</v>
       </c>
       <c r="AI215" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ215" s="7" t="s">
         <v>665</v>
@@ -20583,10 +20598,10 @@
       <c r="AL215" s="7" t="n">
         <v>209</v>
       </c>
-      <c r="AM215" s="25" t="s">
-        <v>682</v>
-      </c>
-      <c r="AN215" s="24" t="n">
+      <c r="AM215" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="AN215" s="25" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20605,10 +20620,10 @@
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G216" s="13" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H216" s="7" t="s">
         <v>85</v>
@@ -20646,7 +20661,7 @@
       <c r="AG216" s="20"/>
       <c r="AH216" s="7"/>
       <c r="AI216" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AJ216" s="7" t="s">
         <v>665</v>
@@ -20657,8 +20672,8 @@
       <c r="AL216" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="AM216" s="25" t="s">
-        <v>686</v>
+      <c r="AM216" s="26" t="s">
+        <v>688</v>
       </c>
       <c r="AN216" s="7" t="n">
         <v>209</v>
@@ -20679,10 +20694,10 @@
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>592</v>
@@ -20694,21 +20709,21 @@
       <c r="K217" s="7"/>
       <c r="L217" s="7"/>
       <c r="M217" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="N217" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O217" s="10"/>
       <c r="P217" s="10"/>
       <c r="Q217" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="R217" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S217" s="13" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="T217" s="7"/>
       <c r="U217" s="7"/>
@@ -20718,7 +20733,7 @@
         <v>662</v>
       </c>
       <c r="Y217" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Z217" s="7"/>
       <c r="AA217" s="7"/>
@@ -20726,13 +20741,13 @@
       <c r="AC217" s="7"/>
       <c r="AD217" s="7"/>
       <c r="AE217" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AF217" s="9"/>
       <c r="AG217" s="7"/>
       <c r="AH217" s="7"/>
       <c r="AI217" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AJ217" s="7" t="s">
         <v>665</v>
@@ -20763,10 +20778,10 @@
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H218" s="7" t="s">
         <v>592</v>
@@ -20778,21 +20793,21 @@
       <c r="K218" s="7"/>
       <c r="L218" s="7"/>
       <c r="M218" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="N218" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O218" s="10"/>
       <c r="P218" s="10"/>
       <c r="Q218" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="R218" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S218" s="13" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="T218" s="7"/>
       <c r="U218" s="7"/>
@@ -20802,7 +20817,7 @@
         <v>662</v>
       </c>
       <c r="Y218" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="Z218" s="7"/>
       <c r="AA218" s="7"/>
@@ -20810,13 +20825,13 @@
       <c r="AC218" s="7"/>
       <c r="AD218" s="7"/>
       <c r="AE218" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AF218" s="9"/>
       <c r="AG218" s="7"/>
       <c r="AH218" s="7"/>
       <c r="AI218" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AJ218" s="7" t="s">
         <v>665</v>
@@ -20847,10 +20862,10 @@
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="13" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G219" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H219" s="7" t="s">
         <v>597</v>
@@ -20900,7 +20915,7 @@
         <v>213</v>
       </c>
       <c r="AM219" s="12" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AN219" s="7" t="n">
         <v>209</v>
@@ -20921,10 +20936,10 @@
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H220" s="7" t="s">
         <v>91</v>
@@ -20936,21 +20951,21 @@
       <c r="K220" s="7"/>
       <c r="L220" s="7"/>
       <c r="M220" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="N220" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O220" s="10"/>
       <c r="P220" s="10"/>
       <c r="Q220" s="10" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="R220" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S220" s="13" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="T220" s="7"/>
       <c r="U220" s="7"/>
@@ -20968,13 +20983,13 @@
       </c>
       <c r="AD220" s="7"/>
       <c r="AE220" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AF220" s="9"/>
       <c r="AG220" s="7"/>
       <c r="AH220" s="7"/>
       <c r="AI220" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AJ220" s="7" t="s">
         <v>665</v>
@@ -21005,10 +21020,10 @@
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="G221" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H221" s="7" t="s">
         <v>91</v>
@@ -21020,21 +21035,21 @@
       <c r="K221" s="7"/>
       <c r="L221" s="7"/>
       <c r="M221" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N221" s="10" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O221" s="10"/>
       <c r="P221" s="10"/>
       <c r="Q221" s="10" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="R221" s="7" t="s">
         <v>93</v>
       </c>
       <c r="S221" s="13" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="T221" s="7"/>
       <c r="U221" s="7"/>
@@ -21052,13 +21067,13 @@
       </c>
       <c r="AD221" s="7"/>
       <c r="AE221" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AF221" s="9"/>
       <c r="AG221" s="7"/>
       <c r="AH221" s="7"/>
       <c r="AI221" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AJ221" s="7" t="s">
         <v>665</v>
@@ -21089,15 +21104,17 @@
       </c>
       <c r="E222" s="7"/>
       <c r="F222" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G222" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H222" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="I222" s="7"/>
+        <v>679</v>
+      </c>
+      <c r="I222" s="13" t="s">
+        <v>710</v>
+      </c>
       <c r="J222" s="7" t="n">
         <v>2</v>
       </c>
@@ -21138,7 +21155,7 @@
       <c r="AG222" s="7"/>
       <c r="AH222" s="7"/>
       <c r="AI222" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AJ222" s="7" t="s">
         <v>665</v>
@@ -21171,13 +21188,13 @@
         <v>486</v>
       </c>
       <c r="F223" s="13" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -21216,7 +21233,7 @@
       <c r="AG223" s="7"/>
       <c r="AH223" s="7"/>
       <c r="AI223" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ223" s="7" t="s">
         <v>665</v>
@@ -21228,7 +21245,7 @@
         <v>217</v>
       </c>
       <c r="AM223" s="7"/>
-      <c r="AN223" s="24" t="n">
+      <c r="AN223" s="25" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21245,14 +21262,14 @@
       <c r="D224" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E224" s="26" t="s">
+      <c r="E224" s="27" t="s">
         <v>486</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G224" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H224" s="7" t="s">
         <v>660</v>
@@ -21302,9 +21319,9 @@
         <v>218</v>
       </c>
       <c r="AM224" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="AN224" s="24" t="n">
+        <v>717</v>
+      </c>
+      <c r="AN224" s="25" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21321,17 +21338,17 @@
       <c r="D225" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="E225" s="26" t="s">
+      <c r="E225" s="27" t="s">
         <v>486</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7" t="n">
@@ -21370,13 +21387,13 @@
         <v>86</v>
       </c>
       <c r="AE225" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AF225" s="9"/>
       <c r="AG225" s="7"/>
       <c r="AH225" s="7"/>
       <c r="AI225" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AJ225" s="7"/>
       <c r="AK225" s="7" t="n">
@@ -21405,10 +21422,10 @@
       </c>
       <c r="E226" s="7"/>
       <c r="F226" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G226" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H226" s="7" t="s">
         <v>85</v>
@@ -21452,7 +21469,7 @@
         <v>220</v>
       </c>
       <c r="AM226" s="12" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AN226" s="10" t="n">
         <v>400</v>
@@ -21472,16 +21489,16 @@
         <v>481</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7" t="n">
@@ -21491,7 +21508,7 @@
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
       <c r="N227" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="O227" s="10"/>
       <c r="P227" s="10"/>
@@ -21500,7 +21517,7 @@
         <v>93</v>
       </c>
       <c r="S227" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T227" s="7"/>
       <c r="U227" s="7"/>
@@ -21508,7 +21525,7 @@
       <c r="W227" s="7"/>
       <c r="X227" s="7"/>
       <c r="Y227" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="Z227" s="7"/>
       <c r="AA227" s="14"/>
@@ -21552,16 +21569,16 @@
         <v>481</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F228" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="G228" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="H228" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="H228" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7" t="n">
@@ -21571,7 +21588,7 @@
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
       <c r="N228" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="O228" s="10"/>
       <c r="P228" s="10"/>
@@ -21580,7 +21597,7 @@
         <v>93</v>
       </c>
       <c r="S228" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T228" s="7"/>
       <c r="U228" s="7"/>
@@ -21588,7 +21605,7 @@
       <c r="W228" s="7"/>
       <c r="X228" s="7"/>
       <c r="Y228" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="Z228" s="7"/>
       <c r="AA228" s="14"/>
@@ -21632,16 +21649,16 @@
         <v>481</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G229" s="13" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7" t="n">
@@ -21650,7 +21667,9 @@
       <c r="K229" s="7"/>
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
-      <c r="N229" s="7"/>
+      <c r="N229" s="10" t="s">
+        <v>736</v>
+      </c>
       <c r="O229" s="10"/>
       <c r="P229" s="10"/>
       <c r="Q229" s="7"/>
@@ -21658,7 +21677,7 @@
         <v>93</v>
       </c>
       <c r="S229" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T229" s="7"/>
       <c r="U229" s="7"/>
@@ -21705,22 +21724,22 @@
         <v>41</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E230" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="F230" s="26" t="s">
-        <v>736</v>
-      </c>
-      <c r="G230" s="26" t="s">
         <v>737</v>
       </c>
+      <c r="E230" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="F230" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="G230" s="27" t="s">
+        <v>740</v>
+      </c>
       <c r="H230" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="I230" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="J230" s="7"/>
       <c r="K230" s="7"/>
@@ -21732,7 +21751,7 @@
       <c r="Q230" s="7"/>
       <c r="R230" s="7"/>
       <c r="S230" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T230" s="7"/>
       <c r="U230" s="7"/>
@@ -21756,7 +21775,7 @@
         <v>218</v>
       </c>
       <c r="AM230" s="12" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="AN230" s="7"/>
     </row>
@@ -21771,22 +21790,22 @@
         <v>41</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E231" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="F231" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="G231" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="I231" s="7" t="s">
         <v>742</v>
-      </c>
-      <c r="F231" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="H231" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="I231" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
@@ -21798,7 +21817,7 @@
       <c r="Q231" s="7"/>
       <c r="R231" s="7"/>
       <c r="S231" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T231" s="7"/>
       <c r="U231" s="7"/>
@@ -21822,7 +21841,7 @@
         <v>219</v>
       </c>
       <c r="AM231" s="12" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="AN231" s="7"/>
     </row>
@@ -21837,36 +21856,36 @@
         <v>41</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E232" s="26" t="s">
-        <v>746</v>
-      </c>
-      <c r="F232" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="G232" s="26" t="s">
-        <v>721</v>
+        <v>737</v>
+      </c>
+      <c r="E232" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="F232" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="G232" s="27" t="s">
+        <v>723</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I232" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
-      <c r="N232" s="27" t="s">
-        <v>750</v>
+      <c r="N232" s="28" t="s">
+        <v>753</v>
       </c>
       <c r="O232" s="7"/>
       <c r="P232" s="7"/>
       <c r="Q232" s="7"/>
       <c r="R232" s="7"/>
       <c r="S232" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T232" s="7"/>
       <c r="U232" s="7"/>
@@ -21905,36 +21924,36 @@
         <v>41</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E233" s="26" t="s">
-        <v>746</v>
-      </c>
-      <c r="F233" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="G233" s="26" t="s">
-        <v>721</v>
+        <v>737</v>
+      </c>
+      <c r="E233" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="F233" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="G233" s="27" t="s">
+        <v>723</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I233" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J233" s="7"/>
       <c r="K233" s="7"/>
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
-      <c r="N233" s="27" t="s">
-        <v>751</v>
+      <c r="N233" s="28" t="s">
+        <v>754</v>
       </c>
       <c r="O233" s="7"/>
       <c r="P233" s="7"/>
       <c r="Q233" s="7"/>
       <c r="R233" s="7"/>
       <c r="S233" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T233" s="7"/>
       <c r="U233" s="7"/>
@@ -21973,22 +21992,22 @@
         <v>41</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E234" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="F234" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="G234" s="26" t="s">
-        <v>754</v>
+        <v>737</v>
+      </c>
+      <c r="E234" s="27" t="s">
+        <v>755</v>
+      </c>
+      <c r="F234" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="G234" s="27" t="s">
+        <v>757</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="I234" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
@@ -22000,7 +22019,7 @@
       <c r="Q234" s="7"/>
       <c r="R234" s="7"/>
       <c r="S234" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T234" s="7"/>
       <c r="U234" s="7"/>
@@ -22024,7 +22043,7 @@
         <v>222</v>
       </c>
       <c r="AM234" s="12" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="AN234" s="7"/>
     </row>
@@ -22039,22 +22058,22 @@
         <v>41</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E235" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="F235" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="E235" s="27" t="s">
+        <v>761</v>
+      </c>
+      <c r="F235" s="27" t="s">
+        <v>762</v>
+      </c>
+      <c r="G235" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="I235" s="7" t="s">
         <v>759</v>
-      </c>
-      <c r="G235" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="H235" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="I235" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
@@ -22066,7 +22085,7 @@
       <c r="Q235" s="7"/>
       <c r="R235" s="7"/>
       <c r="S235" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T235" s="7"/>
       <c r="U235" s="7"/>
@@ -22105,36 +22124,36 @@
         <v>41</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E236" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="F236" s="26" t="s">
-        <v>763</v>
-      </c>
-      <c r="G236" s="26" t="s">
-        <v>764</v>
+        <v>737</v>
+      </c>
+      <c r="E236" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="F236" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="G236" s="27" t="s">
+        <v>767</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="I236" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
       <c r="N236" s="7" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="O236" s="7"/>
       <c r="P236" s="7"/>
       <c r="Q236" s="7"/>
       <c r="R236" s="7"/>
       <c r="S236" s="7" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="T236" s="7"/>
       <c r="U236" s="7"/>
@@ -22171,22 +22190,22 @@
         <v>41</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E237" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="F237" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="G237" s="26" t="s">
-        <v>770</v>
+        <v>737</v>
+      </c>
+      <c r="E237" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="F237" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="G237" s="27" t="s">
+        <v>773</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="I237" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
@@ -22200,7 +22219,7 @@
       <c r="Q237" s="7"/>
       <c r="R237" s="7"/>
       <c r="S237" s="7" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="T237" s="7"/>
       <c r="U237" s="7"/>
@@ -22237,36 +22256,36 @@
         <v>41</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E238" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="F238" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="G238" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="E238" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="F238" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="G238" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="H238" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="H238" s="7" t="s">
-        <v>771</v>
-      </c>
       <c r="I238" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J238" s="7"/>
       <c r="K238" s="7"/>
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
       <c r="N238" s="7" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="O238" s="7"/>
       <c r="P238" s="7"/>
       <c r="Q238" s="7"/>
       <c r="R238" s="7"/>
       <c r="S238" s="7" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="T238" s="7"/>
       <c r="U238" s="7"/>
@@ -22303,38 +22322,38 @@
         <v>41</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E239" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="F239" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="G239" s="26" t="s">
-        <v>778</v>
+        <v>737</v>
+      </c>
+      <c r="E239" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F239" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G239" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I239" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
       <c r="L239" s="7"/>
       <c r="M239" s="13" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="N239" s="12" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="O239" s="7"/>
       <c r="P239" s="7"/>
       <c r="Q239" s="7"/>
       <c r="R239" s="7"/>
       <c r="S239" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T239" s="7"/>
       <c r="U239" s="7"/>
@@ -22373,38 +22392,38 @@
         <v>41</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E240" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="F240" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="G240" s="26" t="s">
-        <v>778</v>
+        <v>737</v>
+      </c>
+      <c r="E240" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F240" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G240" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I240" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
       <c r="L240" s="7"/>
       <c r="M240" s="13" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="N240" s="12" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="O240" s="7"/>
       <c r="P240" s="7"/>
       <c r="Q240" s="7"/>
       <c r="R240" s="7"/>
       <c r="S240" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T240" s="7"/>
       <c r="U240" s="7"/>
@@ -22443,38 +22462,38 @@
         <v>41</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E241" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="F241" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="G241" s="26" t="s">
-        <v>778</v>
+        <v>737</v>
+      </c>
+      <c r="E241" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F241" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G241" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I241" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
       <c r="L241" s="7"/>
       <c r="M241" s="13" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="N241" s="12" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="O241" s="7"/>
       <c r="P241" s="7"/>
       <c r="Q241" s="7"/>
       <c r="R241" s="7"/>
       <c r="S241" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T241" s="7"/>
       <c r="U241" s="7"/>
@@ -22513,38 +22532,38 @@
         <v>41</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E242" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="F242" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="G242" s="26" t="s">
-        <v>778</v>
+        <v>737</v>
+      </c>
+      <c r="E242" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F242" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G242" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I242" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
       <c r="L242" s="7"/>
       <c r="M242" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="N242" s="28" t="s">
-        <v>781</v>
+        <v>782</v>
+      </c>
+      <c r="N242" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="O242" s="7"/>
       <c r="P242" s="7"/>
       <c r="Q242" s="7"/>
       <c r="R242" s="7"/>
       <c r="S242" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T242" s="7"/>
       <c r="U242" s="7"/>
@@ -22581,38 +22600,38 @@
         <v>41</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E243" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="F243" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="G243" s="26" t="s">
-        <v>778</v>
+        <v>737</v>
+      </c>
+      <c r="E243" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F243" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G243" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I243" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
       <c r="L243" s="7"/>
       <c r="M243" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="N243" s="28" t="s">
         <v>782</v>
+      </c>
+      <c r="N243" s="29" t="s">
+        <v>785</v>
       </c>
       <c r="O243" s="7"/>
       <c r="P243" s="7"/>
       <c r="Q243" s="7"/>
       <c r="R243" s="7"/>
       <c r="S243" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T243" s="7"/>
       <c r="U243" s="7"/>
@@ -22636,7 +22655,7 @@
         <v>231</v>
       </c>
       <c r="AM243" s="12" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="AN243" s="7"/>
     </row>
@@ -22651,38 +22670,38 @@
         <v>41</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E244" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="F244" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="G244" s="26" t="s">
-        <v>778</v>
+        <v>737</v>
+      </c>
+      <c r="E244" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F244" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G244" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I244" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J244" s="7"/>
       <c r="K244" s="7"/>
       <c r="L244" s="7"/>
       <c r="M244" s="13" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="N244" s="12" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="O244" s="7"/>
       <c r="P244" s="7"/>
       <c r="Q244" s="7"/>
       <c r="R244" s="7"/>
       <c r="S244" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T244" s="7"/>
       <c r="U244" s="7"/>
@@ -22706,7 +22725,7 @@
         <v>232</v>
       </c>
       <c r="AM244" s="12" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="AN244" s="7"/>
     </row>
@@ -22721,38 +22740,38 @@
         <v>41</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="E245" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="F245" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="G245" s="26" t="s">
-        <v>778</v>
+        <v>737</v>
+      </c>
+      <c r="E245" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="F245" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="G245" s="27" t="s">
+        <v>781</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I245" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J245" s="7"/>
       <c r="K245" s="7"/>
       <c r="L245" s="7"/>
       <c r="M245" s="13" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="N245" s="12" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="O245" s="7"/>
       <c r="P245" s="7"/>
       <c r="Q245" s="7"/>
       <c r="R245" s="7"/>
       <c r="S245" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="T245" s="7"/>
       <c r="U245" s="7"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -12,9 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="788">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -889,10 +889,10 @@
     <t xml:space="preserve">5449000148056</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 2</t>
+    <t xml:space="preserve">Monster Ultra - 0.5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Монстер Ультра - 0.5л</t>
   </si>
   <si>
     <t xml:space="preserve">Tea Availability</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon - 1L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass  - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">5449000189318, 5449000236241</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 0.5L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5449000233615</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Berry - 1L</t>
+    <t xml:space="preserve">Fuze Berry-Hibiscus - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 1л</t>
@@ -1818,10 +1818,7 @@
     <t xml:space="preserve">NCB Дисплей</t>
   </si>
   <si>
-    <t xml:space="preserve">Other TCCC Displays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display NCB</t>
+    <t xml:space="preserve">NCB Didplays</t>
   </si>
   <si>
     <t xml:space="preserve">156
@@ -1868,7 +1865,7 @@
 161</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Lemon - 1L</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass  - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 1л</t>
@@ -2166,7 +2163,7 @@
     <t xml:space="preserve">Холодный Чай полка: Фьюз Манго-Ромашка - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon - 1L</t>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon-Lemongrass  - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
@@ -2251,10 +2248,7 @@
     <t xml:space="preserve">Холодильники: Максимум 15 СКЮ на дверь</t>
   </si>
   <si>
-    <t xml:space="preserve">DUMMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of SKU/ Door RANGE</t>
+    <t xml:space="preserve">number of SKU per Door RANGE TOTAL</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD</t>
@@ -2314,7 +2308,7 @@
     <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze and coca- cola shelf 2-3 </t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола и Фьюз на 2- 3 полке</t>
@@ -2324,13 +2318,13 @@
 215</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD fuze shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Coca - Cola shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Кока-Кола на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD FUZE shelf 2-3</t>
+    <t xml:space="preserve">Cooler: Merch Priorty STD Fuze shelf 2-3</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
@@ -2348,7 +2342,7 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Каждое SKU min 2 facing</t>
   </si>
   <si>
-    <t xml:space="preserve">number of facings every TCC SKUs on Scenes</t>
+    <t xml:space="preserve">each SKU hits facings target</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=2</t>
@@ -2686,8 +2680,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCCFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2705,7 +2699,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -2937,7 +2931,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2948,7 +2942,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -2986,54 +2980,55 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="46.4898785425101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="63.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="50.8825910931174"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="88.3724696356275"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.6963562753036"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5101214574899"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.9028340080972"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.1457489878543"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.6194331983806"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="86.8016194331984"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="20.9676113360324"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.5748987854251"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="9.1497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3155,7 +3150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>233</v>
       </c>
@@ -3217,7 +3212,7 @@
       </c>
       <c r="AN2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>234</v>
       </c>
@@ -3279,7 +3274,7 @@
       </c>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>235</v>
       </c>
@@ -3343,7 +3338,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>236</v>
       </c>
@@ -3407,7 +3402,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>237</v>
       </c>
@@ -3469,7 +3464,7 @@
       </c>
       <c r="AN6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>238</v>
       </c>
@@ -3533,7 +3528,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>239</v>
       </c>
@@ -3597,7 +3592,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>240</v>
       </c>
@@ -3659,7 +3654,7 @@
       </c>
       <c r="AN9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>241</v>
       </c>
@@ -3723,7 +3718,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>242</v>
       </c>
@@ -3787,7 +3782,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>243</v>
       </c>
@@ -3851,7 +3846,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>244</v>
       </c>
@@ -3915,7 +3910,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>245</v>
       </c>
@@ -3979,7 +3974,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>246</v>
       </c>
@@ -4043,7 +4038,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>247</v>
       </c>
@@ -4105,7 +4100,7 @@
       </c>
       <c r="AN16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>1</v>
       </c>
@@ -4175,7 +4170,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>2</v>
       </c>
@@ -4259,7 +4254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>2</v>
       </c>
@@ -4343,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>3</v>
       </c>
@@ -4427,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>4</v>
       </c>
@@ -4511,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>5</v>
       </c>
@@ -4595,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>6</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>7</v>
       </c>
@@ -4763,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>8</v>
       </c>
@@ -4847,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>9</v>
       </c>
@@ -4931,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>10</v>
       </c>
@@ -5015,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>11</v>
       </c>
@@ -5099,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>12</v>
       </c>
@@ -5183,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>13</v>
       </c>
@@ -5267,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>14</v>
       </c>
@@ -5351,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>15</v>
       </c>
@@ -5435,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>16</v>
       </c>
@@ -5519,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>17</v>
       </c>
@@ -5603,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>18</v>
       </c>
@@ -5687,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>19</v>
       </c>
@@ -5771,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>20</v>
       </c>
@@ -5855,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>21</v>
       </c>
@@ -5939,7 +5934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>22</v>
       </c>
@@ -6023,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>23</v>
       </c>
@@ -6107,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>24</v>
       </c>
@@ -6191,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>25</v>
       </c>
@@ -6275,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>26</v>
       </c>
@@ -6359,7 +6354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>27</v>
       </c>
@@ -6443,7 +6438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>28</v>
       </c>
@@ -6527,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>29</v>
       </c>
@@ -6611,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>30</v>
       </c>
@@ -6695,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>31</v>
       </c>
@@ -6779,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>32</v>
       </c>
@@ -6863,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>33</v>
       </c>
@@ -6947,7 +6942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>34</v>
       </c>
@@ -7031,7 +7026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>35</v>
       </c>
@@ -7115,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>36</v>
       </c>
@@ -7199,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>37</v>
       </c>
@@ -7283,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>38</v>
       </c>
@@ -7367,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>39</v>
       </c>
@@ -7451,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>40</v>
       </c>
@@ -7521,7 +7516,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>41</v>
       </c>
@@ -7605,7 +7600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>42</v>
       </c>
@@ -7689,7 +7684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>43</v>
       </c>
@@ -7773,7 +7768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>44</v>
       </c>
@@ -7857,7 +7852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>45</v>
       </c>
@@ -7941,7 +7936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>46</v>
       </c>
@@ -8025,7 +8020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>47</v>
       </c>
@@ -8109,7 +8104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>48</v>
       </c>
@@ -8193,7 +8188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>49</v>
       </c>
@@ -8277,7 +8272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>50</v>
       </c>
@@ -8347,7 +8342,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>51</v>
       </c>
@@ -8431,7 +8426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>52</v>
       </c>
@@ -8515,7 +8510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>53</v>
       </c>
@@ -8599,7 +8594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>54</v>
       </c>
@@ -8683,7 +8678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>55</v>
       </c>
@@ -8767,7 +8762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>56</v>
       </c>
@@ -8851,7 +8846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>57</v>
       </c>
@@ -8870,7 +8865,7 @@
       <c r="F74" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="6" t="s">
         <v>261</v>
       </c>
       <c r="H74" s="6" t="s">
@@ -8886,7 +8881,7 @@
         <v>260</v>
       </c>
       <c r="N74" s="9" t="n">
-        <v>111111</v>
+        <v>5060517888794</v>
       </c>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
@@ -8935,7 +8930,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>58</v>
       </c>
@@ -9005,7 +9000,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>59</v>
       </c>
@@ -9089,7 +9084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>60</v>
       </c>
@@ -9173,7 +9168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>61</v>
       </c>
@@ -9257,7 +9252,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>62</v>
       </c>
@@ -9341,7 +9336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>63</v>
       </c>
@@ -9425,7 +9420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>64</v>
       </c>
@@ -9509,7 +9504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>65</v>
       </c>
@@ -9593,7 +9588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>66</v>
       </c>
@@ -9677,7 +9672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>67</v>
       </c>
@@ -9761,7 +9756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>68</v>
       </c>
@@ -9845,7 +9840,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>69</v>
       </c>
@@ -9915,7 +9910,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>70</v>
       </c>
@@ -9999,7 +9994,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>71</v>
       </c>
@@ -10083,7 +10078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>72</v>
       </c>
@@ -10167,7 +10162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>73</v>
       </c>
@@ -10251,7 +10246,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>74</v>
       </c>
@@ -10335,7 +10330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>75</v>
       </c>
@@ -10419,7 +10414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>76</v>
       </c>
@@ -10503,7 +10498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>77</v>
       </c>
@@ -10587,7 +10582,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>78</v>
       </c>
@@ -10671,7 +10666,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>79</v>
       </c>
@@ -10755,7 +10750,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>80</v>
       </c>
@@ -10839,7 +10834,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>81</v>
       </c>
@@ -10923,7 +10918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>82</v>
       </c>
@@ -11007,7 +11002,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>83</v>
       </c>
@@ -11091,7 +11086,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>84</v>
       </c>
@@ -11175,7 +11170,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>85</v>
       </c>
@@ -11259,7 +11254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>86</v>
       </c>
@@ -11343,7 +11338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>87</v>
       </c>
@@ -11427,7 +11422,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>88</v>
       </c>
@@ -11511,7 +11506,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>89</v>
       </c>
@@ -11595,7 +11590,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>90</v>
       </c>
@@ -11679,7 +11674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>91</v>
       </c>
@@ -11763,7 +11758,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>92</v>
       </c>
@@ -11847,7 +11842,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>93</v>
       </c>
@@ -11931,7 +11926,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>94</v>
       </c>
@@ -12015,7 +12010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>95</v>
       </c>
@@ -12099,7 +12094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>96</v>
       </c>
@@ -12183,7 +12178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>97</v>
       </c>
@@ -12267,7 +12262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>98</v>
       </c>
@@ -12351,7 +12346,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>99</v>
       </c>
@@ -12435,7 +12430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>100</v>
       </c>
@@ -12519,7 +12514,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>101</v>
       </c>
@@ -12603,7 +12598,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>102</v>
       </c>
@@ -12687,7 +12682,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>103</v>
       </c>
@@ -12771,7 +12766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>104</v>
       </c>
@@ -12855,7 +12850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>105</v>
       </c>
@@ -12939,7 +12934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>106</v>
       </c>
@@ -13023,7 +13018,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>107</v>
       </c>
@@ -13107,7 +13102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>108</v>
       </c>
@@ -13191,7 +13186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>109</v>
       </c>
@@ -13275,7 +13270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>110</v>
       </c>
@@ -13359,7 +13354,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>111</v>
       </c>
@@ -13443,7 +13438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>112</v>
       </c>
@@ -13527,7 +13522,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>113</v>
       </c>
@@ -13611,7 +13606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>114</v>
       </c>
@@ -13695,7 +13690,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>115</v>
       </c>
@@ -13779,7 +13774,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>116</v>
       </c>
@@ -13863,7 +13858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>117</v>
       </c>
@@ -13947,7 +13942,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>118</v>
       </c>
@@ -14031,7 +14026,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>119</v>
       </c>
@@ -14115,7 +14110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>120</v>
       </c>
@@ -14199,7 +14194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>121</v>
       </c>
@@ -14283,7 +14278,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>122</v>
       </c>
@@ -14367,7 +14362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>123</v>
       </c>
@@ -14451,7 +14446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>124</v>
       </c>
@@ -14535,7 +14530,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>125</v>
       </c>
@@ -14619,7 +14614,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>126</v>
       </c>
@@ -14703,7 +14698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>127</v>
       </c>
@@ -14787,7 +14782,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>131</v>
       </c>
@@ -14867,7 +14862,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>132</v>
       </c>
@@ -14951,7 +14946,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>133</v>
       </c>
@@ -15031,7 +15026,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>134</v>
       </c>
@@ -15115,7 +15110,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>135</v>
       </c>
@@ -15197,7 +15192,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>136</v>
       </c>
@@ -15279,7 +15274,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>137</v>
       </c>
@@ -15361,7 +15356,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>138</v>
       </c>
@@ -15443,7 +15438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>139</v>
       </c>
@@ -15525,7 +15520,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>140</v>
       </c>
@@ -15605,7 +15600,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>141</v>
       </c>
@@ -15689,7 +15684,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>142</v>
       </c>
@@ -15769,7 +15764,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>143</v>
       </c>
@@ -15847,7 +15842,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>144</v>
       </c>
@@ -15929,7 +15924,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>145</v>
       </c>
@@ -16011,7 +16006,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>146</v>
       </c>
@@ -16095,7 +16090,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>147</v>
       </c>
@@ -16177,7 +16172,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>148</v>
       </c>
@@ -16259,7 +16254,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>149</v>
       </c>
@@ -16341,7 +16336,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>150</v>
       </c>
@@ -16423,7 +16418,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>151</v>
       </c>
@@ -16503,7 +16498,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>152</v>
       </c>
@@ -16587,7 +16582,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>153</v>
       </c>
@@ -16667,7 +16662,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>154</v>
       </c>
@@ -16751,7 +16746,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>155</v>
       </c>
@@ -16798,9 +16793,7 @@
       <c r="X169" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Y169" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="Y169" s="6"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="6"/>
       <c r="AB169" s="6"/>
@@ -16825,13 +16818,13 @@
         <v>155</v>
       </c>
       <c r="AM169" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AN169" s="12" t="n">
         <v>320</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>156</v>
       </c>
@@ -16848,10 +16841,10 @@
         <v>461</v>
       </c>
       <c r="F170" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G170" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="H170" s="6" t="s">
         <v>91</v>
@@ -16866,20 +16859,20 @@
         <v>469</v>
       </c>
       <c r="N170" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="O170" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="O170" s="9" t="s">
+      <c r="P170" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="P170" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="Q170" s="9"/>
       <c r="R170" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S170" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
@@ -16888,9 +16881,7 @@
       <c r="X170" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Y170" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="Y170" s="6"/>
       <c r="Z170" s="6"/>
       <c r="AA170" s="6"/>
       <c r="AB170" s="6"/>
@@ -16917,7 +16908,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>157</v>
       </c>
@@ -16934,10 +16925,10 @@
         <v>461</v>
       </c>
       <c r="F171" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="G171" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="H171" s="6" t="s">
         <v>474</v>
@@ -16962,15 +16953,13 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W171" s="6"/>
       <c r="X171" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Y171" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
       <c r="AA171" s="6"/>
       <c r="AB171" s="6"/>
@@ -16997,7 +16986,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>158</v>
       </c>
@@ -17014,10 +17003,10 @@
         <v>461</v>
       </c>
       <c r="F172" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="G172" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>555</v>
       </c>
       <c r="H172" s="6" t="s">
         <v>508</v>
@@ -17044,9 +17033,7 @@
       <c r="X172" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Y172" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
       <c r="AA172" s="6"/>
       <c r="AB172" s="6"/>
@@ -17069,13 +17056,13 @@
         <v>158</v>
       </c>
       <c r="AM172" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN172" s="6" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="n">
         <v>159</v>
       </c>
@@ -17092,10 +17079,10 @@
         <v>461</v>
       </c>
       <c r="F173" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G173" s="9" t="s">
         <v>557</v>
-      </c>
-      <c r="G173" s="9" t="s">
-        <v>558</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>479</v>
@@ -17126,9 +17113,7 @@
       <c r="X173" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Y173" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="6"/>
       <c r="AB173" s="6"/>
@@ -17143,7 +17128,7 @@
       <c r="AG173" s="6"/>
       <c r="AH173" s="6"/>
       <c r="AI173" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AJ173" s="6"/>
       <c r="AK173" s="6" t="n">
@@ -17157,7 +17142,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
         <v>160</v>
       </c>
@@ -17174,10 +17159,10 @@
         <v>461</v>
       </c>
       <c r="F174" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="G174" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="G174" s="9" t="s">
-        <v>561</v>
       </c>
       <c r="H174" s="6" t="s">
         <v>479</v>
@@ -17187,7 +17172,7 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N174" s="20" t="s">
         <v>282</v>
@@ -17208,9 +17193,7 @@
       <c r="X174" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Y174" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="Y174" s="6"/>
       <c r="Z174" s="6"/>
       <c r="AA174" s="6"/>
       <c r="AB174" s="6"/>
@@ -17225,7 +17208,7 @@
       <c r="AG174" s="6"/>
       <c r="AH174" s="6"/>
       <c r="AI174" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AJ174" s="6"/>
       <c r="AK174" s="6" t="n">
@@ -17239,7 +17222,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
         <v>161</v>
       </c>
@@ -17256,10 +17239,10 @@
         <v>461</v>
       </c>
       <c r="F175" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="G175" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="G175" s="9" t="s">
-        <v>565</v>
       </c>
       <c r="H175" s="6" t="s">
         <v>479</v>
@@ -17290,9 +17273,7 @@
       <c r="X175" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="Y175" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="Y175" s="6"/>
       <c r="Z175" s="6"/>
       <c r="AA175" s="6"/>
       <c r="AB175" s="6"/>
@@ -17307,7 +17288,7 @@
       <c r="AG175" s="6"/>
       <c r="AH175" s="6"/>
       <c r="AI175" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AJ175" s="6"/>
       <c r="AK175" s="6" t="n">
@@ -17321,7 +17302,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
         <v>162</v>
       </c>
@@ -17338,10 +17319,10 @@
         <v>461</v>
       </c>
       <c r="F176" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="G176" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="H176" s="6" t="s">
         <v>464</v>
@@ -17395,13 +17376,13 @@
         <v>162</v>
       </c>
       <c r="AM176" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN176" s="12" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
         <v>163</v>
       </c>
@@ -17418,10 +17399,10 @@
         <v>461</v>
       </c>
       <c r="F177" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="H177" s="6" t="s">
         <v>91</v>
@@ -17485,7 +17466,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
         <v>164</v>
       </c>
@@ -17502,10 +17483,10 @@
         <v>461</v>
       </c>
       <c r="F178" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>474</v>
@@ -17530,7 +17511,7 @@
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W178" s="6"/>
       <c r="X178" s="6" t="s">
@@ -17565,7 +17546,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
         <v>165</v>
       </c>
@@ -17582,10 +17563,10 @@
         <v>461</v>
       </c>
       <c r="F179" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="G179" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="H179" s="6" t="s">
         <v>508</v>
@@ -17643,7 +17624,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="n">
         <v>166</v>
       </c>
@@ -17660,10 +17641,10 @@
         <v>461</v>
       </c>
       <c r="F180" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G180" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>578</v>
       </c>
       <c r="H180" s="6" t="s">
         <v>479</v>
@@ -17713,7 +17694,7 @@
       <c r="AG180" s="6"/>
       <c r="AH180" s="6"/>
       <c r="AI180" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AJ180" s="6"/>
       <c r="AK180" s="6" t="n">
@@ -17727,7 +17708,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="n">
         <v>167</v>
       </c>
@@ -17744,10 +17725,10 @@
         <v>461</v>
       </c>
       <c r="F181" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="G181" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="H181" s="6" t="s">
         <v>464</v>
@@ -17801,13 +17782,13 @@
         <v>167</v>
       </c>
       <c r="AM181" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AN181" s="12" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="n">
         <v>168</v>
       </c>
@@ -17824,10 +17805,10 @@
         <v>461</v>
       </c>
       <c r="F182" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="G182" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>583</v>
       </c>
       <c r="H182" s="6" t="s">
         <v>91</v>
@@ -17891,7 +17872,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
         <v>169</v>
       </c>
@@ -17908,10 +17889,10 @@
         <v>461</v>
       </c>
       <c r="F183" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="G183" s="6" t="s">
         <v>584</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>585</v>
       </c>
       <c r="H183" s="6" t="s">
         <v>474</v>
@@ -17936,7 +17917,7 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W183" s="6"/>
       <c r="X183" s="6" t="s">
@@ -17971,7 +17952,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="n">
         <v>170</v>
       </c>
@@ -17988,10 +17969,10 @@
         <v>461</v>
       </c>
       <c r="F184" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="G184" s="21" t="s">
         <v>586</v>
-      </c>
-      <c r="G184" s="21" t="s">
-        <v>587</v>
       </c>
       <c r="H184" s="6" t="s">
         <v>91</v>
@@ -18041,7 +18022,7 @@
       <c r="AG184" s="6"/>
       <c r="AH184" s="6"/>
       <c r="AI184" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AJ184" s="6"/>
       <c r="AK184" s="6" t="n">
@@ -18055,7 +18036,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>179</v>
       </c>
@@ -18069,16 +18050,16 @@
         <v>481</v>
       </c>
       <c r="E185" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F185" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="F185" s="6" t="s">
+      <c r="G185" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G185" s="6" t="s">
+      <c r="H185" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="I185" s="6"/>
       <c r="J185" s="7" t="n">
@@ -18106,7 +18087,7 @@
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
       <c r="X185" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
@@ -18117,7 +18098,7 @@
         <v>86</v>
       </c>
       <c r="AE185" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF185" s="8" t="n">
         <v>0.0725</v>
@@ -18139,7 +18120,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="n">
         <v>180</v>
       </c>
@@ -18156,13 +18137,13 @@
         <v>486</v>
       </c>
       <c r="F186" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="G186" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="G186" s="6" t="s">
+      <c r="H186" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="H186" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="I186" s="6"/>
       <c r="J186" s="6" t="n">
@@ -18184,14 +18165,14 @@
       <c r="V186" s="6"/>
       <c r="W186" s="6"/>
       <c r="X186" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y186" s="6"/>
       <c r="Z186" s="6"/>
       <c r="AA186" s="14"/>
       <c r="AB186" s="6"/>
       <c r="AC186" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD186" s="6" t="s">
         <v>86</v>
@@ -18213,13 +18194,13 @@
         <v>180</v>
       </c>
       <c r="AM186" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AN186" s="23" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="n">
         <v>181</v>
       </c>
@@ -18236,10 +18217,10 @@
         <v>486</v>
       </c>
       <c r="F187" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G187" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>601</v>
       </c>
       <c r="H187" s="6" t="s">
         <v>91</v>
@@ -18270,14 +18251,14 @@
       <c r="V187" s="6"/>
       <c r="W187" s="6"/>
       <c r="X187" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y187" s="6"/>
       <c r="Z187" s="6"/>
       <c r="AA187" s="14"/>
       <c r="AB187" s="6"/>
       <c r="AC187" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD187" s="6" t="s">
         <v>86</v>
@@ -18301,7 +18282,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="n">
         <v>182</v>
       </c>
@@ -18318,10 +18299,10 @@
         <v>486</v>
       </c>
       <c r="F188" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="G188" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="H188" s="6" t="s">
         <v>91</v>
@@ -18333,7 +18314,7 @@
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N188" s="9" t="s">
         <v>103</v>
@@ -18352,14 +18333,14 @@
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
       <c r="X188" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y188" s="6"/>
       <c r="Z188" s="6"/>
       <c r="AA188" s="14"/>
       <c r="AB188" s="6"/>
       <c r="AC188" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD188" s="6" t="s">
         <v>86</v>
@@ -18383,7 +18364,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="n">
         <v>183</v>
       </c>
@@ -18400,10 +18381,10 @@
         <v>486</v>
       </c>
       <c r="F189" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G189" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="H189" s="6" t="s">
         <v>91</v>
@@ -18434,14 +18415,14 @@
       <c r="V189" s="6"/>
       <c r="W189" s="6"/>
       <c r="X189" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y189" s="6"/>
       <c r="Z189" s="6"/>
       <c r="AA189" s="14"/>
       <c r="AB189" s="6"/>
       <c r="AC189" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD189" s="6" t="s">
         <v>86</v>
@@ -18465,7 +18446,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="n">
         <v>184</v>
       </c>
@@ -18482,10 +18463,10 @@
         <v>486</v>
       </c>
       <c r="F190" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="G190" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="H190" s="6" t="s">
         <v>91</v>
@@ -18516,14 +18497,14 @@
       <c r="V190" s="6"/>
       <c r="W190" s="6"/>
       <c r="X190" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y190" s="6"/>
       <c r="Z190" s="6"/>
       <c r="AA190" s="14"/>
       <c r="AB190" s="6"/>
       <c r="AC190" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD190" s="6" t="s">
         <v>86</v>
@@ -18547,7 +18528,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="n">
         <v>185</v>
       </c>
@@ -18564,10 +18545,10 @@
         <v>486</v>
       </c>
       <c r="F191" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="G191" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>610</v>
       </c>
       <c r="H191" s="6" t="s">
         <v>91</v>
@@ -18598,14 +18579,14 @@
       <c r="V191" s="6"/>
       <c r="W191" s="6"/>
       <c r="X191" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y191" s="6"/>
       <c r="Z191" s="6"/>
       <c r="AA191" s="14"/>
       <c r="AB191" s="6"/>
       <c r="AC191" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD191" s="6" t="s">
         <v>86</v>
@@ -18629,7 +18610,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="n">
         <v>186</v>
       </c>
@@ -18646,10 +18627,10 @@
         <v>486</v>
       </c>
       <c r="F192" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="G192" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>612</v>
       </c>
       <c r="H192" s="6" t="s">
         <v>91</v>
@@ -18661,7 +18642,7 @@
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N192" s="9" t="s">
         <v>133</v>
@@ -18680,14 +18661,14 @@
       <c r="V192" s="6"/>
       <c r="W192" s="6"/>
       <c r="X192" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y192" s="6"/>
       <c r="Z192" s="6"/>
       <c r="AA192" s="14"/>
       <c r="AB192" s="6"/>
       <c r="AC192" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD192" s="6" t="s">
         <v>86</v>
@@ -18711,7 +18692,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="n">
         <v>187</v>
       </c>
@@ -18728,10 +18709,10 @@
         <v>486</v>
       </c>
       <c r="F193" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="G193" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="H193" s="6" t="s">
         <v>91</v>
@@ -18762,14 +18743,14 @@
       <c r="V193" s="6"/>
       <c r="W193" s="6"/>
       <c r="X193" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y193" s="6"/>
       <c r="Z193" s="6"/>
       <c r="AA193" s="14"/>
       <c r="AB193" s="6"/>
       <c r="AC193" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD193" s="6" t="s">
         <v>86</v>
@@ -18793,7 +18774,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="n">
         <v>188</v>
       </c>
@@ -18810,10 +18791,10 @@
         <v>486</v>
       </c>
       <c r="F194" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="G194" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="H194" s="6" t="s">
         <v>91</v>
@@ -18844,14 +18825,14 @@
       <c r="V194" s="6"/>
       <c r="W194" s="6"/>
       <c r="X194" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y194" s="6"/>
       <c r="Z194" s="6"/>
       <c r="AA194" s="14"/>
       <c r="AB194" s="6"/>
       <c r="AC194" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD194" s="6" t="s">
         <v>86</v>
@@ -18875,7 +18856,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="n">
         <v>189</v>
       </c>
@@ -18889,16 +18870,16 @@
         <v>42</v>
       </c>
       <c r="E195" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="F195" s="6" t="s">
+      <c r="G195" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="G195" s="6" t="s">
-        <v>620</v>
-      </c>
       <c r="H195" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I195" s="6"/>
       <c r="J195" s="7" t="n">
@@ -18926,7 +18907,7 @@
       <c r="V195" s="6"/>
       <c r="W195" s="6"/>
       <c r="X195" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y195" s="6"/>
       <c r="Z195" s="6"/>
@@ -18937,7 +18918,7 @@
         <v>86</v>
       </c>
       <c r="AE195" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF195" s="8" t="n">
         <v>0.0625</v>
@@ -18959,7 +18940,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="n">
         <v>190</v>
       </c>
@@ -18976,13 +18957,13 @@
         <v>486</v>
       </c>
       <c r="F196" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="G196" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="G196" s="6" t="s">
-        <v>622</v>
-      </c>
       <c r="H196" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I196" s="6"/>
       <c r="J196" s="6" t="n">
@@ -19004,14 +18985,14 @@
       <c r="V196" s="6"/>
       <c r="W196" s="6"/>
       <c r="X196" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y196" s="6"/>
       <c r="Z196" s="6"/>
       <c r="AA196" s="14"/>
       <c r="AB196" s="6"/>
       <c r="AC196" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD196" s="6" t="s">
         <v>86</v>
@@ -19033,13 +19014,13 @@
         <v>190</v>
       </c>
       <c r="AM196" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AN196" s="23" t="n">
         <v>502</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="n">
         <v>191</v>
       </c>
@@ -19056,10 +19037,10 @@
         <v>486</v>
       </c>
       <c r="F197" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="G197" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="H197" s="6" t="s">
         <v>91</v>
@@ -19090,14 +19071,14 @@
       <c r="V197" s="6"/>
       <c r="W197" s="6"/>
       <c r="X197" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y197" s="6"/>
       <c r="Z197" s="6"/>
       <c r="AA197" s="14"/>
       <c r="AB197" s="6"/>
       <c r="AC197" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD197" s="6" t="s">
         <v>86</v>
@@ -19121,7 +19102,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="n">
         <v>192</v>
       </c>
@@ -19138,10 +19119,10 @@
         <v>486</v>
       </c>
       <c r="F198" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="G198" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="H198" s="6" t="s">
         <v>91</v>
@@ -19172,14 +19153,14 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
       <c r="X198" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y198" s="6"/>
       <c r="Z198" s="6"/>
       <c r="AA198" s="14"/>
       <c r="AB198" s="6"/>
       <c r="AC198" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD198" s="6" t="s">
         <v>86</v>
@@ -19203,7 +19184,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="n">
         <v>193</v>
       </c>
@@ -19220,10 +19201,10 @@
         <v>486</v>
       </c>
       <c r="F199" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G199" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="H199" s="6" t="s">
         <v>91</v>
@@ -19254,14 +19235,14 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
       <c r="X199" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y199" s="6"/>
       <c r="Z199" s="6"/>
       <c r="AA199" s="14"/>
       <c r="AB199" s="6"/>
       <c r="AC199" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD199" s="6" t="s">
         <v>86</v>
@@ -19285,7 +19266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="n">
         <v>194</v>
       </c>
@@ -19302,10 +19283,10 @@
         <v>486</v>
       </c>
       <c r="F200" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G200" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="H200" s="6" t="s">
         <v>91</v>
@@ -19336,14 +19317,14 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
       <c r="X200" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y200" s="6"/>
       <c r="Z200" s="6"/>
       <c r="AA200" s="14"/>
       <c r="AB200" s="6"/>
       <c r="AC200" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD200" s="6" t="s">
         <v>86</v>
@@ -19367,7 +19348,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="n">
         <v>195</v>
       </c>
@@ -19384,10 +19365,10 @@
         <v>486</v>
       </c>
       <c r="F201" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G201" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="H201" s="6" t="s">
         <v>91</v>
@@ -19418,14 +19399,14 @@
       <c r="V201" s="6"/>
       <c r="W201" s="6"/>
       <c r="X201" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y201" s="6"/>
       <c r="Z201" s="6"/>
       <c r="AA201" s="14"/>
       <c r="AB201" s="6"/>
       <c r="AC201" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD201" s="6" t="s">
         <v>86</v>
@@ -19449,7 +19430,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="n">
         <v>196</v>
       </c>
@@ -19463,16 +19444,16 @@
         <v>42</v>
       </c>
       <c r="E202" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F202" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="F202" s="6" t="s">
+      <c r="G202" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="G202" s="6" t="s">
-        <v>636</v>
-      </c>
       <c r="H202" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="7" t="n">
@@ -19484,10 +19465,10 @@
         <v>469</v>
       </c>
       <c r="N202" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O202" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P202" s="9"/>
       <c r="Q202" s="6"/>
@@ -19500,7 +19481,7 @@
       <c r="V202" s="6"/>
       <c r="W202" s="6"/>
       <c r="X202" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y202" s="6"/>
       <c r="Z202" s="6"/>
@@ -19511,7 +19492,7 @@
         <v>86</v>
       </c>
       <c r="AE202" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF202" s="8" t="n">
         <v>0.0225</v>
@@ -19533,7 +19514,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="n">
         <v>197</v>
       </c>
@@ -19550,13 +19531,13 @@
         <v>486</v>
       </c>
       <c r="F203" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="G203" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="G203" s="6" t="s">
-        <v>639</v>
-      </c>
       <c r="H203" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="6" t="n">
@@ -19578,14 +19559,14 @@
       <c r="V203" s="6"/>
       <c r="W203" s="6"/>
       <c r="X203" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y203" s="6"/>
       <c r="Z203" s="6"/>
       <c r="AA203" s="14"/>
       <c r="AB203" s="6"/>
       <c r="AC203" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD203" s="6" t="s">
         <v>86</v>
@@ -19607,13 +19588,13 @@
         <v>197</v>
       </c>
       <c r="AM203" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN203" s="23" t="n">
         <v>503</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="n">
         <v>198</v>
       </c>
@@ -19630,7 +19611,7 @@
         <v>486</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G204" s="6" t="s">
         <v>218</v>
@@ -19664,14 +19645,14 @@
       <c r="V204" s="6"/>
       <c r="W204" s="6"/>
       <c r="X204" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y204" s="6"/>
       <c r="Z204" s="6"/>
       <c r="AA204" s="14"/>
       <c r="AB204" s="6"/>
       <c r="AC204" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD204" s="6" t="s">
         <v>86</v>
@@ -19695,7 +19676,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="n">
         <v>199</v>
       </c>
@@ -19709,16 +19690,16 @@
         <v>42</v>
       </c>
       <c r="E205" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="F205" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="F205" s="6" t="s">
+      <c r="G205" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="G205" s="6" t="s">
-        <v>644</v>
-      </c>
       <c r="H205" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I205" s="6"/>
       <c r="J205" s="7" t="n">
@@ -19730,10 +19711,10 @@
         <v>469</v>
       </c>
       <c r="N205" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O205" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="P205" s="9"/>
       <c r="Q205" s="6"/>
@@ -19746,7 +19727,7 @@
       <c r="V205" s="6"/>
       <c r="W205" s="6"/>
       <c r="X205" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y205" s="6"/>
       <c r="Z205" s="6"/>
@@ -19757,7 +19738,7 @@
         <v>86</v>
       </c>
       <c r="AE205" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF205" s="8" t="n">
         <v>0.0425</v>
@@ -19779,7 +19760,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="n">
         <v>200</v>
       </c>
@@ -19796,13 +19777,13 @@
         <v>486</v>
       </c>
       <c r="F206" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="G206" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="G206" s="6" t="s">
-        <v>647</v>
-      </c>
       <c r="H206" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I206" s="6"/>
       <c r="J206" s="6" t="n">
@@ -19824,14 +19805,14 @@
       <c r="V206" s="6"/>
       <c r="W206" s="6"/>
       <c r="X206" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y206" s="6"/>
       <c r="Z206" s="6"/>
       <c r="AA206" s="14"/>
       <c r="AB206" s="6"/>
       <c r="AC206" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD206" s="6" t="s">
         <v>86</v>
@@ -19853,13 +19834,13 @@
         <v>200</v>
       </c>
       <c r="AM206" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AN206" s="23" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="n">
         <v>201</v>
       </c>
@@ -19876,10 +19857,10 @@
         <v>486</v>
       </c>
       <c r="F207" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="G207" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="H207" s="6" t="s">
         <v>91</v>
@@ -19910,14 +19891,14 @@
       <c r="V207" s="6"/>
       <c r="W207" s="6"/>
       <c r="X207" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y207" s="6"/>
       <c r="Z207" s="6"/>
       <c r="AA207" s="14"/>
       <c r="AB207" s="6"/>
       <c r="AC207" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD207" s="6" t="s">
         <v>86</v>
@@ -19941,7 +19922,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="n">
         <v>202</v>
       </c>
@@ -19958,10 +19939,10 @@
         <v>486</v>
       </c>
       <c r="F208" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="G208" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>652</v>
       </c>
       <c r="H208" s="6" t="s">
         <v>91</v>
@@ -19992,14 +19973,14 @@
       <c r="V208" s="6"/>
       <c r="W208" s="6"/>
       <c r="X208" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y208" s="6"/>
       <c r="Z208" s="6"/>
       <c r="AA208" s="14"/>
       <c r="AB208" s="6"/>
       <c r="AC208" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD208" s="6" t="s">
         <v>86</v>
@@ -20023,7 +20004,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="n">
         <v>203</v>
       </c>
@@ -20037,16 +20018,16 @@
         <v>42</v>
       </c>
       <c r="E209" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="F209" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="F209" s="6" t="s">
+      <c r="G209" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="G209" s="6" t="s">
-        <v>655</v>
-      </c>
       <c r="H209" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="7" t="n">
@@ -20058,10 +20039,10 @@
         <v>469</v>
       </c>
       <c r="N209" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O209" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P209" s="9"/>
       <c r="Q209" s="6"/>
@@ -20074,7 +20055,7 @@
       <c r="V209" s="6"/>
       <c r="W209" s="6"/>
       <c r="X209" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="Y209" s="6"/>
       <c r="Z209" s="6"/>
@@ -20085,7 +20066,7 @@
         <v>86</v>
       </c>
       <c r="AE209" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF209" s="8" t="n">
         <v>0.04</v>
@@ -20105,7 +20086,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="n">
         <v>204</v>
       </c>
@@ -20119,16 +20100,16 @@
         <v>42</v>
       </c>
       <c r="E210" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="F210" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="F210" s="6" t="s">
+      <c r="G210" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="G210" s="6" t="s">
+      <c r="H210" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="H210" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
@@ -20140,7 +20121,7 @@
       <c r="P210" s="9"/>
       <c r="Q210" s="9"/>
       <c r="R210" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S210" s="6"/>
       <c r="T210" s="6"/>
@@ -20148,7 +20129,7 @@
       <c r="V210" s="6"/>
       <c r="W210" s="6"/>
       <c r="X210" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y210" s="6"/>
       <c r="Z210" s="6"/>
@@ -20159,7 +20140,7 @@
         <v>86</v>
       </c>
       <c r="AE210" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF210" s="8" t="n">
         <v>0.065</v>
@@ -20167,7 +20148,7 @@
       <c r="AG210" s="6"/>
       <c r="AH210" s="6"/>
       <c r="AI210" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AJ210" s="6"/>
       <c r="AK210" s="6" t="n">
@@ -20177,13 +20158,13 @@
         <v>204</v>
       </c>
       <c r="AM210" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AN210" s="12" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="n">
         <v>205</v>
       </c>
@@ -20197,16 +20178,16 @@
         <v>42</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F211" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G211" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="G211" s="6" t="s">
+      <c r="H211" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="H211" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6" t="n">
@@ -20220,21 +20201,21 @@
         <v>469</v>
       </c>
       <c r="N211" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O211" s="9"/>
       <c r="P211" s="9"/>
       <c r="Q211" s="9"/>
       <c r="R211" s="6"/>
       <c r="S211" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T211" s="6"/>
       <c r="U211" s="6"/>
       <c r="V211" s="6"/>
       <c r="W211" s="6"/>
       <c r="X211" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y211" s="6"/>
       <c r="Z211" s="6"/>
@@ -20263,7 +20244,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="n">
         <v>206</v>
       </c>
@@ -20277,16 +20258,16 @@
         <v>42</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F212" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G212" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="G212" s="6" t="s">
+      <c r="H212" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="H212" s="6" t="s">
-        <v>670</v>
       </c>
       <c r="I212" s="6"/>
       <c r="J212" s="6" t="n">
@@ -20298,21 +20279,21 @@
         <v>469</v>
       </c>
       <c r="N212" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O212" s="9"/>
       <c r="P212" s="9"/>
       <c r="Q212" s="9"/>
       <c r="R212" s="6"/>
       <c r="S212" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T212" s="6"/>
       <c r="U212" s="6"/>
       <c r="V212" s="6"/>
       <c r="W212" s="6"/>
       <c r="X212" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Y212" s="6"/>
       <c r="Z212" s="6"/>
@@ -20341,7 +20322,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="n">
         <v>207</v>
       </c>
@@ -20358,10 +20339,10 @@
         <v>486</v>
       </c>
       <c r="F213" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G213" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="H213" s="6" t="s">
         <v>474</v>
@@ -20379,16 +20360,16 @@
       <c r="Q213" s="9"/>
       <c r="R213" s="6"/>
       <c r="S213" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T213" s="6"/>
       <c r="U213" s="6"/>
       <c r="V213" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="W213" s="6"/>
       <c r="X213" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y213" s="6"/>
       <c r="Z213" s="6"/>
@@ -20407,10 +20388,10 @@
       <c r="AG213" s="6"/>
       <c r="AH213" s="6"/>
       <c r="AI213" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ213" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK213" s="6" t="n">
         <v>2</v>
@@ -20423,7 +20404,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="n">
         <v>208</v>
       </c>
@@ -20440,17 +20421,15 @@
         <v>486</v>
       </c>
       <c r="F214" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="G214" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="G214" s="6" t="s">
+      <c r="H214" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="H214" s="25" t="s">
-        <v>679</v>
-      </c>
-      <c r="I214" s="25" t="s">
-        <v>680</v>
-      </c>
+      <c r="I214" s="6"/>
       <c r="J214" s="6" t="n">
         <v>15</v>
       </c>
@@ -20463,18 +20442,22 @@
       <c r="M214" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="N214" s="9"/>
+      <c r="N214" s="9" t="s">
+        <v>548</v>
+      </c>
       <c r="O214" s="9"/>
       <c r="P214" s="9"/>
       <c r="Q214" s="9"/>
-      <c r="R214" s="6"/>
+      <c r="R214" s="6" t="s">
+        <v>549</v>
+      </c>
       <c r="S214" s="6"/>
       <c r="T214" s="6"/>
       <c r="U214" s="6"/>
       <c r="V214" s="6"/>
       <c r="W214" s="6"/>
       <c r="X214" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y214" s="6"/>
       <c r="Z214" s="6"/>
@@ -20493,10 +20476,10 @@
       <c r="AG214" s="6"/>
       <c r="AH214" s="6"/>
       <c r="AI214" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ214" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK214" s="6" t="n">
         <v>2</v>
@@ -20509,7 +20492,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="n">
         <v>209</v>
       </c>
@@ -20526,10 +20509,10 @@
         <v>486</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H215" s="6" t="s">
         <v>85</v>
@@ -20552,7 +20535,7 @@
       <c r="V215" s="6"/>
       <c r="W215" s="6"/>
       <c r="X215" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y215" s="6"/>
       <c r="Z215" s="6"/>
@@ -20563,7 +20546,7 @@
         <v>86</v>
       </c>
       <c r="AE215" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AF215" s="8" t="n">
         <v>0.01625</v>
@@ -20575,10 +20558,10 @@
         <v>1</v>
       </c>
       <c r="AI215" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ215" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK215" s="6" t="n">
         <v>2</v>
@@ -20587,13 +20570,13 @@
         <v>209</v>
       </c>
       <c r="AM215" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AN215" s="24" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="n">
         <v>210</v>
       </c>
@@ -20608,10 +20591,10 @@
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="G216" s="12" t="s">
-        <v>686</v>
+        <v>683</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="H216" s="6" t="s">
         <v>85</v>
@@ -20634,7 +20617,7 @@
       <c r="V216" s="6"/>
       <c r="W216" s="6"/>
       <c r="X216" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y216" s="6"/>
       <c r="Z216" s="6"/>
@@ -20649,10 +20632,10 @@
       <c r="AG216" s="20"/>
       <c r="AH216" s="6"/>
       <c r="AI216" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AJ216" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK216" s="6" t="n">
         <v>3</v>
@@ -20661,13 +20644,13 @@
         <v>210</v>
       </c>
       <c r="AM216" s="26" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AN216" s="6" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="n">
         <v>211</v>
       </c>
@@ -20682,13 +20665,13 @@
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="6" t="n">
@@ -20697,31 +20680,31 @@
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
       <c r="M217" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="O217" s="9"/>
       <c r="P217" s="9"/>
       <c r="Q217" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="R217" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S217" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T217" s="6"/>
       <c r="U217" s="6"/>
       <c r="V217" s="6"/>
       <c r="W217" s="6"/>
       <c r="X217" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y217" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="Z217" s="6"/>
       <c r="AA217" s="6"/>
@@ -20729,16 +20712,16 @@
       <c r="AC217" s="6"/>
       <c r="AD217" s="6"/>
       <c r="AE217" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AF217" s="8"/>
       <c r="AG217" s="6"/>
       <c r="AH217" s="6"/>
       <c r="AI217" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AJ217" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK217" s="6" t="n">
         <v>4</v>
@@ -20751,7 +20734,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="n">
         <v>212</v>
       </c>
@@ -20766,13 +20749,13 @@
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I218" s="6"/>
       <c r="J218" s="6" t="n">
@@ -20781,31 +20764,31 @@
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
       <c r="M218" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N218" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="O218" s="9"/>
       <c r="P218" s="9"/>
       <c r="Q218" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="R218" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S218" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T218" s="6"/>
       <c r="U218" s="6"/>
       <c r="V218" s="6"/>
       <c r="W218" s="6"/>
       <c r="X218" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y218" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="Z218" s="6"/>
       <c r="AA218" s="6"/>
@@ -20813,16 +20796,16 @@
       <c r="AC218" s="6"/>
       <c r="AD218" s="6"/>
       <c r="AE218" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AF218" s="8"/>
       <c r="AG218" s="6"/>
       <c r="AH218" s="6"/>
       <c r="AI218" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AJ218" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK218" s="6" t="n">
         <v>4</v>
@@ -20835,7 +20818,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="n">
         <v>213</v>
       </c>
@@ -20849,14 +20832,14 @@
         <v>42</v>
       </c>
       <c r="E219" s="6"/>
-      <c r="F219" s="12" t="s">
-        <v>699</v>
+      <c r="F219" s="6" t="s">
+        <v>697</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="6" t="n">
@@ -20878,7 +20861,7 @@
       <c r="V219" s="6"/>
       <c r="W219" s="6"/>
       <c r="X219" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y219" s="6"/>
       <c r="Z219" s="6"/>
@@ -20894,7 +20877,7 @@
       <c r="AH219" s="6"/>
       <c r="AI219" s="6"/>
       <c r="AJ219" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK219" s="6" t="n">
         <v>3</v>
@@ -20903,13 +20886,13 @@
         <v>213</v>
       </c>
       <c r="AM219" s="11" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AN219" s="6" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="n">
         <v>214</v>
       </c>
@@ -20924,10 +20907,10 @@
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="G220" s="12" t="s">
-        <v>703</v>
+        <v>700</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>701</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>91</v>
@@ -20939,48 +20922,48 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
       <c r="M220" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="O220" s="9"/>
       <c r="P220" s="9"/>
       <c r="Q220" s="9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="R220" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S220" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T220" s="6"/>
       <c r="U220" s="6"/>
       <c r="V220" s="6"/>
       <c r="W220" s="6"/>
       <c r="X220" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y220" s="6"/>
       <c r="Z220" s="6"/>
       <c r="AA220" s="6"/>
       <c r="AB220" s="6"/>
       <c r="AC220" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD220" s="6"/>
       <c r="AE220" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AF220" s="8"/>
       <c r="AG220" s="6"/>
       <c r="AH220" s="6"/>
       <c r="AI220" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AJ220" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK220" s="6" t="n">
         <v>4</v>
@@ -20993,7 +20976,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="n">
         <v>215</v>
       </c>
@@ -21008,10 +20991,10 @@
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H221" s="6" t="s">
         <v>91</v>
@@ -21023,48 +21006,48 @@
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
       <c r="M221" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N221" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="O221" s="9"/>
       <c r="P221" s="9"/>
       <c r="Q221" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="R221" s="6" t="s">
         <v>93</v>
       </c>
       <c r="S221" s="12" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="T221" s="6"/>
       <c r="U221" s="6"/>
       <c r="V221" s="6"/>
       <c r="W221" s="6"/>
       <c r="X221" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y221" s="6"/>
       <c r="Z221" s="6"/>
       <c r="AA221" s="6"/>
       <c r="AB221" s="6"/>
       <c r="AC221" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AD221" s="6"/>
       <c r="AE221" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AF221" s="8"/>
       <c r="AG221" s="6"/>
       <c r="AH221" s="6"/>
       <c r="AI221" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AJ221" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK221" s="6" t="n">
         <v>4</v>
@@ -21077,7 +21060,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="n">
         <v>216</v>
       </c>
@@ -21092,17 +21075,15 @@
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="H222" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="G222" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="H222" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="I222" s="12" t="s">
-        <v>710</v>
-      </c>
+      <c r="I222" s="6"/>
       <c r="J222" s="6" t="n">
         <v>2</v>
       </c>
@@ -21112,7 +21093,7 @@
         <v>469</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O222" s="9"/>
       <c r="P222" s="9"/>
@@ -21121,14 +21102,14 @@
         <v>93</v>
       </c>
       <c r="S222" s="12" t="s">
-        <v>94</v>
+        <v>549</v>
       </c>
       <c r="T222" s="6"/>
       <c r="U222" s="6"/>
       <c r="V222" s="6"/>
       <c r="W222" s="6"/>
       <c r="X222" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y222" s="6"/>
       <c r="Z222" s="6"/>
@@ -21143,10 +21124,10 @@
       <c r="AG222" s="6"/>
       <c r="AH222" s="6"/>
       <c r="AI222" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AJ222" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK222" s="6" t="n">
         <v>3</v>
@@ -21159,7 +21140,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="n">
         <v>217</v>
       </c>
@@ -21176,13 +21157,13 @@
         <v>486</v>
       </c>
       <c r="F223" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="H223" s="6" t="s">
         <v>712</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="H223" s="6" t="s">
-        <v>714</v>
       </c>
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
@@ -21190,21 +21171,21 @@
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
       <c r="N223" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O223" s="9"/>
       <c r="P223" s="9"/>
       <c r="Q223" s="9"/>
       <c r="R223" s="6"/>
       <c r="S223" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T223" s="6"/>
       <c r="U223" s="6"/>
       <c r="V223" s="6"/>
       <c r="W223" s="6"/>
       <c r="X223" s="27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Y223" s="6"/>
       <c r="Z223" s="6"/>
@@ -21215,7 +21196,7 @@
         <v>86</v>
       </c>
       <c r="AE223" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF223" s="8" t="n">
         <v>0.01625</v>
@@ -21223,10 +21204,10 @@
       <c r="AG223" s="6"/>
       <c r="AH223" s="6"/>
       <c r="AI223" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ223" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AK223" s="6" t="n">
         <v>2</v>
@@ -21239,7 +21220,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="n">
         <v>218</v>
       </c>
@@ -21256,13 +21237,13 @@
         <v>486</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6" t="n">
@@ -21284,7 +21265,7 @@
       <c r="V224" s="6"/>
       <c r="W224" s="6"/>
       <c r="X224" s="27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Y224" s="6"/>
       <c r="Z224" s="6"/>
@@ -21295,7 +21276,7 @@
         <v>86</v>
       </c>
       <c r="AE224" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF224" s="8" t="n">
         <v>0.03</v>
@@ -21311,13 +21292,13 @@
         <v>218</v>
       </c>
       <c r="AM224" s="14" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AN224" s="24" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="n">
         <v>219</v>
       </c>
@@ -21334,13 +21315,13 @@
         <v>486</v>
       </c>
       <c r="F225" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="H225" s="6" t="s">
         <v>718</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="H225" s="6" t="s">
-        <v>720</v>
       </c>
       <c r="I225" s="6"/>
       <c r="J225" s="6" t="n">
@@ -21354,7 +21335,7 @@
         <v>469</v>
       </c>
       <c r="N225" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O225" s="9"/>
       <c r="P225" s="9"/>
@@ -21363,14 +21344,14 @@
         <v>93</v>
       </c>
       <c r="S225" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T225" s="6"/>
       <c r="U225" s="6"/>
       <c r="V225" s="6"/>
       <c r="W225" s="6"/>
       <c r="X225" s="27" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Y225" s="6"/>
       <c r="Z225" s="6"/>
@@ -21381,13 +21362,13 @@
         <v>86</v>
       </c>
       <c r="AE225" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AF225" s="8"/>
       <c r="AG225" s="6"/>
       <c r="AH225" s="6"/>
       <c r="AI225" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AJ225" s="6"/>
       <c r="AK225" s="6" t="n">
@@ -21401,7 +21382,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="n">
         <v>220</v>
       </c>
@@ -21416,10 +21397,10 @@
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H226" s="6" t="s">
         <v>85</v>
@@ -21463,13 +21444,13 @@
         <v>220</v>
       </c>
       <c r="AM226" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AN226" s="9" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="n">
         <v>221</v>
       </c>
@@ -21483,16 +21464,16 @@
         <v>481</v>
       </c>
       <c r="E227" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="G227" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="F227" s="6" t="s">
+      <c r="H227" s="6" t="s">
         <v>727</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="H227" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="I227" s="6"/>
       <c r="J227" s="6" t="n">
@@ -21502,7 +21483,7 @@
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
       <c r="N227" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
@@ -21511,7 +21492,7 @@
         <v>93</v>
       </c>
       <c r="S227" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T227" s="6"/>
       <c r="U227" s="6"/>
@@ -21519,7 +21500,7 @@
       <c r="W227" s="6"/>
       <c r="X227" s="6"/>
       <c r="Y227" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Z227" s="6"/>
       <c r="AA227" s="14"/>
@@ -21549,7 +21530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="n">
         <v>222</v>
       </c>
@@ -21563,16 +21544,16 @@
         <v>481</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I228" s="6"/>
       <c r="J228" s="6" t="n">
@@ -21582,7 +21563,7 @@
       <c r="L228" s="6"/>
       <c r="M228" s="6"/>
       <c r="N228" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="O228" s="9"/>
       <c r="P228" s="9"/>
@@ -21591,7 +21572,7 @@
         <v>93</v>
       </c>
       <c r="S228" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T228" s="6"/>
       <c r="U228" s="6"/>
@@ -21599,7 +21580,7 @@
       <c r="W228" s="6"/>
       <c r="X228" s="6"/>
       <c r="Y228" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="Z228" s="6"/>
       <c r="AA228" s="14"/>
@@ -21629,7 +21610,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="n">
         <v>223</v>
       </c>
@@ -21643,16 +21624,16 @@
         <v>481</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G229" s="12" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H229" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I229" s="6"/>
       <c r="J229" s="6" t="n">
@@ -21662,7 +21643,7 @@
       <c r="L229" s="6"/>
       <c r="M229" s="6"/>
       <c r="N229" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="O229" s="9"/>
       <c r="P229" s="9"/>
@@ -21671,7 +21652,7 @@
         <v>93</v>
       </c>
       <c r="S229" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T229" s="6"/>
       <c r="U229" s="6"/>
@@ -21679,7 +21660,7 @@
       <c r="W229" s="6"/>
       <c r="X229" s="6"/>
       <c r="Y229" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="Z229" s="6"/>
       <c r="AA229" s="14"/>
@@ -21709,7 +21690,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="n">
         <v>217</v>
       </c>
@@ -21720,22 +21701,22 @@
         <v>41</v>
       </c>
       <c r="D230" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E230" s="28" t="s">
+        <v>736</v>
+      </c>
+      <c r="F230" s="28" t="s">
         <v>737</v>
       </c>
-      <c r="E230" s="28" t="s">
+      <c r="G230" s="28" t="s">
         <v>738</v>
       </c>
-      <c r="F230" s="28" t="s">
+      <c r="H230" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="G230" s="28" t="s">
+      <c r="I230" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="H230" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="I230" s="6" t="s">
-        <v>742</v>
       </c>
       <c r="J230" s="6"/>
       <c r="K230" s="6"/>
@@ -21747,7 +21728,7 @@
       <c r="Q230" s="6"/>
       <c r="R230" s="6"/>
       <c r="S230" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T230" s="6"/>
       <c r="U230" s="6"/>
@@ -21771,11 +21752,11 @@
         <v>218</v>
       </c>
       <c r="AM230" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AN230" s="6"/>
     </row>
-    <row r="231" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="n">
         <v>218</v>
       </c>
@@ -21786,22 +21767,22 @@
         <v>41</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E231" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="G231" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="F231" s="6" t="s">
-        <v>746</v>
-      </c>
-      <c r="G231" s="16" t="s">
-        <v>747</v>
-      </c>
       <c r="H231" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J231" s="6"/>
       <c r="K231" s="6"/>
@@ -21813,7 +21794,7 @@
       <c r="Q231" s="6"/>
       <c r="R231" s="6"/>
       <c r="S231" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T231" s="6"/>
       <c r="U231" s="6"/>
@@ -21837,11 +21818,11 @@
         <v>219</v>
       </c>
       <c r="AM231" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AN231" s="6"/>
     </row>
-    <row r="232" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="n">
         <v>219</v>
       </c>
@@ -21852,36 +21833,36 @@
         <v>41</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E232" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="F232" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="G232" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="H232" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="F232" s="28" t="s">
+      <c r="I232" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="G232" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="H232" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="I232" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="J232" s="6"/>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6"/>
       <c r="N232" s="29" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O232" s="6"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="6"/>
       <c r="R232" s="6"/>
       <c r="S232" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T232" s="6"/>
       <c r="U232" s="6"/>
@@ -21909,7 +21890,7 @@
       </c>
       <c r="AN232" s="6"/>
     </row>
-    <row r="233" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="n">
         <v>220</v>
       </c>
@@ -21920,36 +21901,36 @@
         <v>41</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E233" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="F233" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="G233" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="H233" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="F233" s="28" t="s">
+      <c r="I233" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="G233" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="H233" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="I233" s="6" t="s">
-        <v>752</v>
       </c>
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
       <c r="N233" s="29" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="O233" s="6"/>
       <c r="P233" s="6"/>
       <c r="Q233" s="6"/>
       <c r="R233" s="6"/>
       <c r="S233" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T233" s="6"/>
       <c r="U233" s="6"/>
@@ -21977,7 +21958,7 @@
       </c>
       <c r="AN233" s="6"/>
     </row>
-    <row r="234" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="n">
         <v>221</v>
       </c>
@@ -21988,22 +21969,22 @@
         <v>41</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E234" s="28" t="s">
+        <v>753</v>
+      </c>
+      <c r="F234" s="28" t="s">
+        <v>754</v>
+      </c>
+      <c r="G234" s="28" t="s">
         <v>755</v>
       </c>
-      <c r="F234" s="28" t="s">
+      <c r="H234" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="G234" s="28" t="s">
+      <c r="I234" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="H234" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="I234" s="6" t="s">
-        <v>759</v>
       </c>
       <c r="J234" s="6"/>
       <c r="K234" s="6"/>
@@ -22015,7 +21996,7 @@
       <c r="Q234" s="6"/>
       <c r="R234" s="6"/>
       <c r="S234" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T234" s="6"/>
       <c r="U234" s="6"/>
@@ -22039,11 +22020,11 @@
         <v>222</v>
       </c>
       <c r="AM234" s="11" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AN234" s="6"/>
     </row>
-    <row r="235" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="n">
         <v>222</v>
       </c>
@@ -22054,22 +22035,22 @@
         <v>41</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E235" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="F235" s="28" t="s">
+        <v>760</v>
+      </c>
+      <c r="G235" s="28" t="s">
         <v>761</v>
       </c>
-      <c r="F235" s="28" t="s">
+      <c r="H235" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="G235" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="H235" s="6" t="s">
-        <v>764</v>
-      </c>
       <c r="I235" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J235" s="6"/>
       <c r="K235" s="6"/>
@@ -22081,7 +22062,7 @@
       <c r="Q235" s="6"/>
       <c r="R235" s="6"/>
       <c r="S235" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T235" s="6"/>
       <c r="U235" s="6"/>
@@ -22109,7 +22090,7 @@
       </c>
       <c r="AN235" s="6"/>
     </row>
-    <row r="236" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="n">
         <v>223</v>
       </c>
@@ -22120,36 +22101,36 @@
         <v>41</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E236" s="28" t="s">
+        <v>763</v>
+      </c>
+      <c r="F236" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="G236" s="28" t="s">
         <v>765</v>
       </c>
-      <c r="F236" s="28" t="s">
+      <c r="H236" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="G236" s="28" t="s">
-        <v>767</v>
-      </c>
-      <c r="H236" s="6" t="s">
-        <v>768</v>
-      </c>
       <c r="I236" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J236" s="6"/>
       <c r="K236" s="6"/>
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
       <c r="N236" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="O236" s="6"/>
       <c r="P236" s="6"/>
       <c r="Q236" s="6"/>
       <c r="R236" s="6"/>
       <c r="S236" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="T236" s="6"/>
       <c r="U236" s="6"/>
@@ -22175,7 +22156,7 @@
       <c r="AM236" s="6"/>
       <c r="AN236" s="6"/>
     </row>
-    <row r="237" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="n">
         <v>224</v>
       </c>
@@ -22186,22 +22167,22 @@
         <v>41</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E237" s="28" t="s">
+        <v>769</v>
+      </c>
+      <c r="F237" s="28" t="s">
+        <v>770</v>
+      </c>
+      <c r="G237" s="28" t="s">
         <v>771</v>
       </c>
-      <c r="F237" s="28" t="s">
+      <c r="H237" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="G237" s="28" t="s">
-        <v>773</v>
-      </c>
-      <c r="H237" s="6" t="s">
-        <v>774</v>
-      </c>
       <c r="I237" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J237" s="6"/>
       <c r="K237" s="6"/>
@@ -22215,7 +22196,7 @@
       <c r="Q237" s="6"/>
       <c r="R237" s="6"/>
       <c r="S237" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="T237" s="6"/>
       <c r="U237" s="6"/>
@@ -22241,7 +22222,7 @@
       <c r="AM237" s="6"/>
       <c r="AN237" s="6"/>
     </row>
-    <row r="238" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="n">
         <v>225</v>
       </c>
@@ -22252,36 +22233,36 @@
         <v>41</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E238" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="F238" s="28" t="s">
+        <v>774</v>
+      </c>
+      <c r="G238" s="28" t="s">
         <v>775</v>
       </c>
-      <c r="F238" s="28" t="s">
-        <v>776</v>
-      </c>
-      <c r="G238" s="28" t="s">
-        <v>777</v>
-      </c>
       <c r="H238" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J238" s="6"/>
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
       <c r="M238" s="6"/>
       <c r="N238" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="O238" s="6"/>
       <c r="P238" s="6"/>
       <c r="Q238" s="6"/>
       <c r="R238" s="6"/>
       <c r="S238" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="T238" s="6"/>
       <c r="U238" s="6"/>
@@ -22307,7 +22288,7 @@
       <c r="AM238" s="6"/>
       <c r="AN238" s="6"/>
     </row>
-    <row r="239" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="n">
         <v>226</v>
       </c>
@@ -22318,38 +22299,38 @@
         <v>41</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E239" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F239" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="G239" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="F239" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="G239" s="28" t="s">
-        <v>781</v>
-      </c>
       <c r="H239" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J239" s="6"/>
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N239" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="O239" s="6"/>
       <c r="P239" s="6"/>
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
       <c r="S239" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T239" s="6"/>
       <c r="U239" s="6"/>
@@ -22377,7 +22358,7 @@
       </c>
       <c r="AN239" s="6"/>
     </row>
-    <row r="240" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="n">
         <v>227</v>
       </c>
@@ -22388,38 +22369,38 @@
         <v>41</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E240" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F240" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="G240" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="F240" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="G240" s="28" t="s">
-        <v>781</v>
-      </c>
       <c r="H240" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J240" s="6"/>
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N240" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="O240" s="6"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="6"/>
       <c r="R240" s="6"/>
       <c r="S240" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T240" s="6"/>
       <c r="U240" s="6"/>
@@ -22447,7 +22428,7 @@
       </c>
       <c r="AN240" s="6"/>
     </row>
-    <row r="241" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="n">
         <v>228</v>
       </c>
@@ -22458,38 +22439,38 @@
         <v>41</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E241" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F241" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="G241" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="F241" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="G241" s="28" t="s">
-        <v>781</v>
-      </c>
       <c r="H241" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N241" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="O241" s="6"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="6"/>
       <c r="R241" s="6"/>
       <c r="S241" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T241" s="6"/>
       <c r="U241" s="6"/>
@@ -22517,7 +22498,7 @@
       </c>
       <c r="AN241" s="6"/>
     </row>
-    <row r="242" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="n">
         <v>229</v>
       </c>
@@ -22528,38 +22509,38 @@
         <v>41</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E242" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F242" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="G242" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="F242" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="G242" s="28" t="s">
-        <v>781</v>
-      </c>
       <c r="H242" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J242" s="6"/>
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="N242" s="30" t="s">
         <v>782</v>
-      </c>
-      <c r="N242" s="30" t="s">
-        <v>784</v>
       </c>
       <c r="O242" s="6"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="6"/>
       <c r="R242" s="6"/>
       <c r="S242" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T242" s="6"/>
       <c r="U242" s="6"/>
@@ -22585,7 +22566,7 @@
       <c r="AM242" s="6"/>
       <c r="AN242" s="6"/>
     </row>
-    <row r="243" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="n">
         <v>230</v>
       </c>
@@ -22596,38 +22577,38 @@
         <v>41</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E243" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F243" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="G243" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="F243" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="G243" s="28" t="s">
-        <v>781</v>
-      </c>
       <c r="H243" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N243" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="O243" s="6"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="6"/>
       <c r="R243" s="6"/>
       <c r="S243" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T243" s="6"/>
       <c r="U243" s="6"/>
@@ -22651,11 +22632,11 @@
         <v>231</v>
       </c>
       <c r="AM243" s="11" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="AN243" s="6"/>
     </row>
-    <row r="244" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="n">
         <v>231</v>
       </c>
@@ -22666,38 +22647,38 @@
         <v>41</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E244" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F244" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="G244" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="F244" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="G244" s="28" t="s">
-        <v>781</v>
-      </c>
       <c r="H244" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N244" s="11" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="O244" s="6"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="6"/>
       <c r="R244" s="6"/>
       <c r="S244" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T244" s="6"/>
       <c r="U244" s="6"/>
@@ -22721,11 +22702,11 @@
         <v>232</v>
       </c>
       <c r="AM244" s="11" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AN244" s="6"/>
     </row>
-    <row r="245" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="n">
         <v>232</v>
       </c>
@@ -22736,38 +22717,38 @@
         <v>41</v>
       </c>
       <c r="D245" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E245" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="F245" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="G245" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="F245" s="28" t="s">
-        <v>780</v>
-      </c>
-      <c r="G245" s="28" t="s">
-        <v>781</v>
-      </c>
       <c r="H245" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J245" s="6"/>
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="N245" s="11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="O245" s="6"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="6"/>
       <c r="R245" s="6"/>
       <c r="S245" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T245" s="6"/>
       <c r="U245" s="6"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -15,6 +15,10 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AN$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -923,7 +927,7 @@
     <t xml:space="preserve">4607042430879, 5449000027450</t>
   </si>
   <si>
-    <t xml:space="preserve">Fuze Lemon-Lemongrass  - 1L</t>
+    <t xml:space="preserve">Fuze Lemon-Lemongrass - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 1л</t>
@@ -1865,7 +1869,7 @@
 161</t>
   </si>
   <si>
-    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass  - 1L</t>
+    <t xml:space="preserve">NCB Display: Lead Fuze Lemon-Lemongrass - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Дисплей: Основной Фьюз Лимон - 1л</t>
@@ -1956,7 +1960,7 @@
     <t xml:space="preserve">Сок Дисплей 2-й: Зона</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice Display 2d:: Lead SKURich - Orange - 1L</t>
+    <t xml:space="preserve">Juice Display 2d: Lead SKU Rich - Orange - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Сок Дисплей 2-й: Основной Рич - Апельсин - 1л</t>
@@ -2132,7 +2136,7 @@
     <t xml:space="preserve">198</t>
   </si>
   <si>
-    <t xml:space="preserve">Water Shelf: BonAqua Still -1L</t>
+    <t xml:space="preserve">Water Shelf: BonAqua Still - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 24</t>
@@ -2163,7 +2167,7 @@
     <t xml:space="preserve">Холодный Чай полка: Фьюз Манго-Ромашка - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon-Lemongrass  - 1L</t>
+    <t xml:space="preserve">Ice Tea Shelf: Fuze Lemon-Lemongrass - 1L</t>
   </si>
   <si>
     <t xml:space="preserve">Холодный Чай полка: Фьюз Лимон - 1л</t>
@@ -2978,54 +2982,53 @@
   <dimension ref="A1:AN245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F205" activeCellId="0" sqref="F205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0404858299595"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="45.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="62.5506072874494"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="45.0607287449393"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.4048582995951"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="41.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="29.4736842105263"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="18.919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.1336032388664"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.0890688259109"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.94736842105263"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.8744939271255"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="57.5101214574899"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="21.4372469635628"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="49.9473684210526"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.2307692307692"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="24.2712550607287"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="24.9028340080972"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="12.9311740890688"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.1457489878543"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="12.6194331983806"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="86.8016194331984"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="20.9676113360324"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.5748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="6.96356275303644"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="59.4493927125506"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="51.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="1" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="1" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="89.8744939271255"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="1" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="1" width="9.1497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="41" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="781">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2569,6 +2570,12 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -2962,17 +2969,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO244"/>
+  <dimension ref="1:245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="A245" activeCellId="0" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2981,38 +2992,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.1821862348178"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.0526315789474"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -22880,7 +22891,81 @@
       <c r="AN244" s="10"/>
       <c r="AO244" s="10"/>
     </row>
+    <row r="245" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A245" s="10" t="n">
+        <v>521</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="E245" s="30"/>
+      <c r="F245" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="G245" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="H245" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="I245" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10"/>
+      <c r="L245" s="10"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="16"/>
+      <c r="O245" s="10"/>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
+      <c r="S245" s="10"/>
+      <c r="T245" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="U245" s="10"/>
+      <c r="V245" s="10"/>
+      <c r="W245" s="10"/>
+      <c r="X245" s="10"/>
+      <c r="Y245" s="10"/>
+      <c r="Z245" s="10"/>
+      <c r="AA245" s="10"/>
+      <c r="AB245" s="10"/>
+      <c r="AC245" s="10"/>
+      <c r="AD245" s="10"/>
+      <c r="AE245" s="13"/>
+      <c r="AF245" s="10"/>
+      <c r="AG245" s="10"/>
+      <c r="AH245" s="10"/>
+      <c r="AI245" s="10"/>
+      <c r="AJ245" s="10"/>
+      <c r="AK245" s="10"/>
+      <c r="AL245" s="10"/>
+      <c r="AM245" s="10" t="n">
+        <v>521</v>
+      </c>
+      <c r="AN245" s="10"/>
+      <c r="AO245" s="10"/>
+      <c r="AMA245" s="0"/>
+      <c r="AMB245" s="0"/>
+      <c r="AMC245" s="0"/>
+      <c r="AMD245" s="0"/>
+      <c r="AME245" s="0"/>
+      <c r="AMF245" s="0"/>
+      <c r="AMG245" s="0"/>
+      <c r="AMH245" s="0"/>
+      <c r="AMI245" s="0"/>
+      <c r="AMJ245" s="0"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AO244"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -22888,5 +22973,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="779">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2570,12 +2569,6 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -2969,21 +2962,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:245"/>
+  <dimension ref="A1:AO244"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A245" activeCellId="0" sqref="A245"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2992,38 +2981,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.1821862348178"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="66.412955465587"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.7732793522267"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.6963562753036"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.0526315789474"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.0242914979757"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -22891,81 +22880,7 @@
       <c r="AN244" s="10"/>
       <c r="AO244" s="10"/>
     </row>
-    <row r="245" customFormat="false" ht="23.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="10" t="n">
-        <v>521</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D245" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="E245" s="30"/>
-      <c r="F245" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="G245" s="30" t="s">
-        <v>780</v>
-      </c>
-      <c r="H245" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="I245" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="J245" s="10"/>
-      <c r="K245" s="10"/>
-      <c r="L245" s="10"/>
-      <c r="M245" s="10"/>
-      <c r="N245" s="16"/>
-      <c r="O245" s="10"/>
-      <c r="P245" s="10"/>
-      <c r="Q245" s="10"/>
-      <c r="R245" s="10"/>
-      <c r="S245" s="10"/>
-      <c r="T245" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="U245" s="10"/>
-      <c r="V245" s="10"/>
-      <c r="W245" s="10"/>
-      <c r="X245" s="10"/>
-      <c r="Y245" s="10"/>
-      <c r="Z245" s="10"/>
-      <c r="AA245" s="10"/>
-      <c r="AB245" s="10"/>
-      <c r="AC245" s="10"/>
-      <c r="AD245" s="10"/>
-      <c r="AE245" s="13"/>
-      <c r="AF245" s="10"/>
-      <c r="AG245" s="10"/>
-      <c r="AH245" s="10"/>
-      <c r="AI245" s="10"/>
-      <c r="AJ245" s="10"/>
-      <c r="AK245" s="10"/>
-      <c r="AL245" s="10"/>
-      <c r="AM245" s="10" t="n">
-        <v>521</v>
-      </c>
-      <c r="AN245" s="10"/>
-      <c r="AO245" s="10"/>
-      <c r="AMA245" s="0"/>
-      <c r="AMB245" s="0"/>
-      <c r="AMC245" s="0"/>
-      <c r="AMD245" s="0"/>
-      <c r="AME245" s="0"/>
-      <c r="AMF245" s="0"/>
-      <c r="AMG245" s="0"/>
-      <c r="AMH245" s="0"/>
-      <c r="AMI245" s="0"/>
-      <c r="AMJ245" s="0"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO244"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -22973,6 +22888,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Supermarket Regions" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3310" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="781">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2569,6 +2570,12 @@
   <si>
     <t xml:space="preserve">MeTimeAtH
 No_O_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan</t>
   </si>
 </sst>
 </file>
@@ -2740,7 +2747,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2889,6 +2896,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2962,17 +2985,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO244"/>
+  <dimension ref="1:245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="AL244" activeCellId="0" sqref="AL244:AL245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2981,38 +3008,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.1821862348178"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="66.412955465587"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="43.8097165991903"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.0526315789474"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.0647773279352"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.0242914979757"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.6963562753036"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.4534412955466"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.4858299595142"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.914979757085"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -22880,7 +22907,72 @@
       <c r="AN244" s="10"/>
       <c r="AO244" s="10"/>
     </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="9" t="n">
+        <v>521</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="E245" s="37"/>
+      <c r="F245" s="30"/>
+      <c r="G245" s="37" t="s">
+        <v>779</v>
+      </c>
+      <c r="H245" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="J245" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="K245" s="38"/>
+      <c r="L245" s="38"/>
+      <c r="M245" s="9"/>
+      <c r="N245" s="39"/>
+      <c r="O245" s="9"/>
+      <c r="P245" s="9"/>
+      <c r="Q245" s="9"/>
+      <c r="R245" s="9"/>
+      <c r="S245" s="9"/>
+      <c r="T245" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="U245" s="9"/>
+      <c r="V245" s="9"/>
+      <c r="W245" s="9"/>
+      <c r="X245" s="9"/>
+      <c r="Y245" s="9"/>
+      <c r="Z245" s="9"/>
+      <c r="AA245" s="9"/>
+      <c r="AB245" s="9"/>
+      <c r="AC245" s="9"/>
+      <c r="AD245" s="40"/>
+      <c r="AE245" s="9"/>
+      <c r="AF245" s="9"/>
+      <c r="AG245" s="9"/>
+      <c r="AH245" s="9"/>
+      <c r="AI245" s="9"/>
+      <c r="AJ245" s="9"/>
+      <c r="AK245" s="9"/>
+      <c r="AL245" s="10"/>
+      <c r="AM245" s="9" t="n">
+        <v>521</v>
+      </c>
+      <c r="AN245" s="9"/>
+      <c r="AO245" s="9"/>
+      <c r="AMJ245" s="0"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AO244"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -22888,5 +22980,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$244</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2456,13 +2457,16 @@
     <t xml:space="preserve">SEND VALUE if one KPI from list is Passed , other value with prefix No</t>
   </si>
   <si>
-    <t xml:space="preserve">Juice_snack, No_Juice_snack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD_snack, No_SSD_snack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich_Cooler, No_Rich_Cooler</t>
+    <t xml:space="preserve">Juice_snack
+No_Juice_snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD_snack
+No_SSD_snack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich_Cooler
+No_Rich_Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 18</t>
@@ -2881,7 +2885,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2999,7 +3003,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AL244" activeCellId="0" sqref="AL244:AL245"/>
+      <selection pane="bottomLeft" activeCell="O234" activeCellId="0" sqref="O234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3008,38 +3012,38 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="54.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="55.165991902834"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="48.9514170040486"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="67.7004048582996"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="48.6315789473684"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9"/>
     <col collapsed="false" hidden="false" max="13" min="12" style="3" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="2" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="2" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="2" width="6.96356275303644"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="2" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="82.6963562753036"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.4534412955466"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="83.3400809716599"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="2" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="53.8825910931174"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="2" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="2" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="2" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="2" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="2" width="62.4493927125506"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="2" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="2" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="2" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="2" width="10.6032388663968"/>
@@ -3171,6 +3175,7 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="n">
@@ -3234,6 +3239,7 @@
         <v>46</v>
       </c>
       <c r="AO2" s="10"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -3297,6 +3303,7 @@
         <v>48</v>
       </c>
       <c r="AO3" s="14"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -3362,6 +3369,7 @@
       <c r="AO4" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -3427,6 +3435,7 @@
       <c r="AO5" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -3490,6 +3499,7 @@
         <v>57</v>
       </c>
       <c r="AO6" s="14"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -3555,6 +3565,7 @@
       <c r="AO7" s="14" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -3620,6 +3631,7 @@
       <c r="AO8" s="14" t="n">
         <v>310</v>
       </c>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
@@ -3683,6 +3695,7 @@
         <v>220</v>
       </c>
       <c r="AO9" s="14"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -3748,6 +3761,7 @@
       <c r="AO10" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -3813,6 +3827,7 @@
       <c r="AO11" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -3878,6 +3893,7 @@
       <c r="AO12" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -3943,6 +3959,7 @@
       <c r="AO13" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -4008,6 +4025,7 @@
       <c r="AO14" s="10" t="n">
         <v>520</v>
       </c>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -4073,6 +4091,7 @@
       <c r="AO15" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -4136,6 +4155,7 @@
         <v>82</v>
       </c>
       <c r="AO16" s="10"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -4207,6 +4227,7 @@
       <c r="AO17" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -4292,6 +4313,7 @@
       <c r="AO18" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -4377,6 +4399,7 @@
       <c r="AO19" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -4462,6 +4485,7 @@
       <c r="AO20" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -4547,6 +4571,7 @@
       <c r="AO21" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
@@ -4632,6 +4657,7 @@
       <c r="AO22" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -4717,6 +4743,7 @@
       <c r="AO23" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -4802,6 +4829,7 @@
       <c r="AO24" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -4887,6 +4915,7 @@
       <c r="AO25" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -4972,6 +5001,7 @@
       <c r="AO26" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -5057,6 +5087,7 @@
       <c r="AO27" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -5142,6 +5173,7 @@
       <c r="AO28" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -5227,6 +5259,7 @@
       <c r="AO29" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -5312,6 +5345,7 @@
       <c r="AO30" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -5397,6 +5431,7 @@
       <c r="AO31" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -5482,6 +5517,7 @@
       <c r="AO32" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -5567,6 +5603,7 @@
       <c r="AO33" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -5652,6 +5689,7 @@
       <c r="AO34" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
@@ -5737,6 +5775,7 @@
       <c r="AO35" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -5822,6 +5861,7 @@
       <c r="AO36" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -5907,6 +5947,7 @@
       <c r="AO37" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -5992,6 +6033,7 @@
       <c r="AO38" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -6077,6 +6119,7 @@
       <c r="AO39" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -6162,6 +6205,7 @@
       <c r="AO40" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -6247,6 +6291,7 @@
       <c r="AO41" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -6332,6 +6377,7 @@
       <c r="AO42" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -6417,6 +6463,7 @@
       <c r="AO43" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
@@ -6502,6 +6549,7 @@
       <c r="AO44" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -6587,6 +6635,7 @@
       <c r="AO45" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -6672,6 +6721,7 @@
       <c r="AO46" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -6757,6 +6807,7 @@
       <c r="AO47" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -6842,6 +6893,7 @@
       <c r="AO48" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -6927,6 +6979,7 @@
       <c r="AO49" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -7012,6 +7065,7 @@
       <c r="AO50" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -7097,6 +7151,7 @@
       <c r="AO51" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
@@ -7182,6 +7237,7 @@
       <c r="AO52" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
@@ -7267,6 +7323,7 @@
       <c r="AO53" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="n">
@@ -7352,6 +7409,7 @@
       <c r="AO54" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="n">
@@ -7437,6 +7495,7 @@
       <c r="AO55" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="n">
@@ -7522,6 +7581,7 @@
       <c r="AO56" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="n">
@@ -7593,6 +7653,7 @@
       <c r="AO57" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
@@ -7678,6 +7739,7 @@
       <c r="AO58" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="n">
@@ -7763,6 +7825,7 @@
       <c r="AO59" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="n">
@@ -7848,6 +7911,7 @@
       <c r="AO60" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="n">
@@ -7933,6 +7997,7 @@
       <c r="AO61" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="n">
@@ -8018,6 +8083,7 @@
       <c r="AO62" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="n">
@@ -8103,6 +8169,7 @@
       <c r="AO63" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="n">
@@ -8188,6 +8255,7 @@
       <c r="AO64" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="n">
@@ -8273,6 +8341,7 @@
       <c r="AO65" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="n">
@@ -8358,6 +8427,7 @@
       <c r="AO66" s="10" t="n">
         <v>41</v>
       </c>
+      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="n">
@@ -8429,6 +8499,7 @@
       <c r="AO67" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="n">
@@ -8514,6 +8585,7 @@
       <c r="AO68" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="n">
@@ -8599,6 +8671,7 @@
       <c r="AO69" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="n">
@@ -8684,6 +8757,7 @@
       <c r="AO70" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="n">
@@ -8769,6 +8843,7 @@
       <c r="AO71" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="n">
@@ -8854,6 +8929,7 @@
       <c r="AO72" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="n">
@@ -8939,6 +9015,7 @@
       <c r="AO73" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="n">
@@ -9024,6 +9101,7 @@
       <c r="AO74" s="10" t="n">
         <v>51</v>
       </c>
+      <c r="AMJ74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="n">
@@ -9095,6 +9173,7 @@
       <c r="AO75" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="n">
@@ -9180,6 +9259,7 @@
       <c r="AO76" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="n">
@@ -9265,6 +9345,7 @@
       <c r="AO77" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="n">
@@ -9350,6 +9431,7 @@
       <c r="AO78" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="n">
@@ -9435,6 +9517,7 @@
       <c r="AO79" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="n">
@@ -9520,6 +9603,7 @@
       <c r="AO80" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="n">
@@ -9605,6 +9689,7 @@
       <c r="AO81" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="n">
@@ -9690,6 +9775,7 @@
       <c r="AO82" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="n">
@@ -9775,6 +9861,7 @@
       <c r="AO83" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="n">
@@ -9860,6 +9947,7 @@
       <c r="AO84" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="n">
@@ -9945,6 +10033,7 @@
       <c r="AO85" s="10" t="n">
         <v>59</v>
       </c>
+      <c r="AMJ85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="n">
@@ -10016,6 +10105,7 @@
       <c r="AO86" s="14" t="n">
         <v>300</v>
       </c>
+      <c r="AMJ86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="n">
@@ -10101,6 +10191,7 @@
       <c r="AO87" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="n">
@@ -10186,6 +10277,7 @@
       <c r="AO88" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="n">
@@ -10271,6 +10363,7 @@
       <c r="AO89" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="n">
@@ -10356,6 +10449,7 @@
       <c r="AO90" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="n">
@@ -10441,6 +10535,7 @@
       <c r="AO91" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="n">
@@ -10526,6 +10621,7 @@
       <c r="AO92" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="n">
@@ -10611,6 +10707,7 @@
       <c r="AO93" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="n">
@@ -10696,6 +10793,7 @@
       <c r="AO94" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="n">
@@ -10781,6 +10879,7 @@
       <c r="AO95" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="n">
@@ -10866,6 +10965,7 @@
       <c r="AO96" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="n">
@@ -10951,6 +11051,7 @@
       <c r="AO97" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="n">
@@ -11036,6 +11137,7 @@
       <c r="AO98" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="n">
@@ -11121,6 +11223,7 @@
       <c r="AO99" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="n">
@@ -11206,6 +11309,7 @@
       <c r="AO100" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="n">
@@ -11291,6 +11395,7 @@
       <c r="AO101" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="n">
@@ -11376,6 +11481,7 @@
       <c r="AO102" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="n">
@@ -11461,6 +11567,7 @@
       <c r="AO103" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="n">
@@ -11546,6 +11653,7 @@
       <c r="AO104" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="n">
@@ -11631,6 +11739,7 @@
       <c r="AO105" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="n">
@@ -11716,6 +11825,7 @@
       <c r="AO106" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="n">
@@ -11801,6 +11911,7 @@
       <c r="AO107" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="n">
@@ -11886,6 +11997,7 @@
       <c r="AO108" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="n">
@@ -11971,6 +12083,7 @@
       <c r="AO109" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="n">
@@ -12056,6 +12169,7 @@
       <c r="AO110" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="9" t="n">
@@ -12141,6 +12255,7 @@
       <c r="AO111" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="9" t="n">
@@ -12228,6 +12343,7 @@
       <c r="AO112" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="9" t="n">
@@ -12313,6 +12429,7 @@
       <c r="AO113" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="9" t="n">
@@ -12398,6 +12515,7 @@
       <c r="AO114" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="n">
@@ -12483,6 +12601,7 @@
       <c r="AO115" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="n">
@@ -12568,6 +12687,7 @@
       <c r="AO116" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="n">
@@ -12653,6 +12773,7 @@
       <c r="AO117" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="n">
@@ -12738,6 +12859,7 @@
       <c r="AO118" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="n">
@@ -12823,6 +12945,7 @@
       <c r="AO119" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="n">
@@ -12908,6 +13031,7 @@
       <c r="AO120" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="n">
@@ -12993,6 +13117,7 @@
       <c r="AO121" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="n">
@@ -13078,6 +13203,7 @@
       <c r="AO122" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="n">
@@ -13163,6 +13289,7 @@
       <c r="AO123" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="n">
@@ -13248,6 +13375,7 @@
       <c r="AO124" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="n">
@@ -13333,6 +13461,7 @@
       <c r="AO125" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="n">
@@ -13418,6 +13547,7 @@
       <c r="AO126" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="n">
@@ -13503,6 +13633,7 @@
       <c r="AO127" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="n">
@@ -13588,6 +13719,7 @@
       <c r="AO128" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="n">
@@ -13673,6 +13805,7 @@
       <c r="AO129" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="n">
@@ -13758,6 +13891,7 @@
       <c r="AO130" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="9" t="n">
@@ -13843,6 +13977,7 @@
       <c r="AO131" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="n">
@@ -13928,6 +14063,7 @@
       <c r="AO132" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="n">
@@ -14013,6 +14149,7 @@
       <c r="AO133" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="n">
@@ -14098,6 +14235,7 @@
       <c r="AO134" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="n">
@@ -14183,6 +14321,7 @@
       <c r="AO135" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="n">
@@ -14268,6 +14407,7 @@
       <c r="AO136" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="n">
@@ -14353,6 +14493,7 @@
       <c r="AO137" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="n">
@@ -14438,6 +14579,7 @@
       <c r="AO138" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="n">
@@ -14523,6 +14665,7 @@
       <c r="AO139" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="n">
@@ -14608,6 +14751,7 @@
       <c r="AO140" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="n">
@@ -14693,6 +14837,7 @@
       <c r="AO141" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="n">
@@ -14778,6 +14923,7 @@
       <c r="AO142" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="n">
@@ -14863,6 +15009,7 @@
       <c r="AO143" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="n">
@@ -14948,6 +15095,7 @@
       <c r="AO144" s="10" t="n">
         <v>70</v>
       </c>
+      <c r="AMJ144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="n">
@@ -15027,6 +15175,7 @@
       <c r="AO145" s="10" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="n">
@@ -15110,6 +15259,7 @@
       <c r="AO146" s="10" t="n">
         <v>131</v>
       </c>
+      <c r="AMJ146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="n">
@@ -15189,6 +15339,7 @@
       <c r="AO147" s="10" t="n">
         <v>131</v>
       </c>
+      <c r="AMJ147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="n">
@@ -15272,6 +15423,7 @@
       <c r="AO148" s="10" t="n">
         <v>131</v>
       </c>
+      <c r="AMJ148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="n">
@@ -15353,6 +15505,7 @@
       <c r="AO149" s="10" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="n">
@@ -15434,6 +15587,7 @@
       <c r="AO150" s="10" t="n">
         <v>135</v>
       </c>
+      <c r="AMJ150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="n">
@@ -15515,6 +15669,7 @@
       <c r="AO151" s="10" t="n">
         <v>135</v>
       </c>
+      <c r="AMJ151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="n">
@@ -15596,6 +15751,7 @@
       <c r="AO152" s="10" t="n">
         <v>135</v>
       </c>
+      <c r="AMJ152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="n">
@@ -15677,6 +15833,7 @@
       <c r="AO153" s="10" t="n">
         <v>135</v>
       </c>
+      <c r="AMJ153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="n">
@@ -15756,6 +15913,7 @@
       <c r="AO154" s="10" t="n">
         <v>303</v>
       </c>
+      <c r="AMJ154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="n">
@@ -15839,6 +15997,7 @@
       <c r="AO155" s="10" t="n">
         <v>140</v>
       </c>
+      <c r="AMJ155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="n">
@@ -15918,6 +16077,7 @@
       <c r="AO156" s="10" t="n">
         <v>140</v>
       </c>
+      <c r="AMJ156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="n">
@@ -15995,6 +16155,7 @@
       <c r="AO157" s="10" t="n">
         <v>140</v>
       </c>
+      <c r="AMJ157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="n">
@@ -16076,6 +16237,7 @@
       <c r="AO158" s="10" t="n">
         <v>143</v>
       </c>
+      <c r="AMJ158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="n">
@@ -16157,6 +16319,7 @@
       <c r="AO159" s="10" t="n">
         <v>143</v>
       </c>
+      <c r="AMJ159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="n">
@@ -16240,6 +16403,7 @@
       <c r="AO160" s="10" t="n">
         <v>303</v>
       </c>
+      <c r="AMJ160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="n">
@@ -16321,6 +16485,7 @@
       <c r="AO161" s="10" t="n">
         <v>146</v>
       </c>
+      <c r="AMJ161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="n">
@@ -16402,6 +16567,7 @@
       <c r="AO162" s="10" t="n">
         <v>146</v>
       </c>
+      <c r="AMJ162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="n">
@@ -16483,6 +16649,7 @@
       <c r="AO163" s="10" t="n">
         <v>146</v>
       </c>
+      <c r="AMJ163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="n">
@@ -16564,6 +16731,7 @@
       <c r="AO164" s="10" t="n">
         <v>146</v>
       </c>
+      <c r="AMJ164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="n">
@@ -16643,6 +16811,7 @@
       <c r="AO165" s="10" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="n">
@@ -16726,6 +16895,7 @@
       <c r="AO166" s="10" t="n">
         <v>151</v>
       </c>
+      <c r="AMJ166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="n">
@@ -16805,6 +16975,7 @@
       <c r="AO167" s="10" t="n">
         <v>151</v>
       </c>
+      <c r="AMJ167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="n">
@@ -16886,6 +17057,7 @@
       <c r="AO168" s="10" t="n">
         <v>151</v>
       </c>
+      <c r="AMJ168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="n">
@@ -16965,6 +17137,7 @@
       <c r="AO169" s="10" t="n">
         <v>320</v>
       </c>
+      <c r="AMJ169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="n">
@@ -17050,6 +17223,7 @@
       <c r="AO170" s="10" t="n">
         <v>155</v>
       </c>
+      <c r="AMJ170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="n">
@@ -17129,6 +17303,7 @@
       <c r="AO171" s="10" t="n">
         <v>155</v>
       </c>
+      <c r="AMJ171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="n">
@@ -17206,6 +17381,7 @@
       <c r="AO172" s="10" t="n">
         <v>155</v>
       </c>
+      <c r="AMJ172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="n">
@@ -17285,6 +17461,7 @@
       <c r="AO173" s="10" t="n">
         <v>158</v>
       </c>
+      <c r="AMJ173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="n">
@@ -17364,6 +17541,7 @@
       <c r="AO174" s="10" t="n">
         <v>158</v>
       </c>
+      <c r="AMJ174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="n">
@@ -17443,6 +17621,7 @@
       <c r="AO175" s="10" t="n">
         <v>158</v>
       </c>
+      <c r="AMJ175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="n">
@@ -17522,6 +17701,7 @@
       <c r="AO176" s="10" t="n">
         <v>302</v>
       </c>
+      <c r="AMJ176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="n">
@@ -17605,6 +17785,7 @@
       <c r="AO177" s="10" t="n">
         <v>162</v>
       </c>
+      <c r="AMJ177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="n">
@@ -17684,6 +17865,7 @@
       <c r="AO178" s="10" t="n">
         <v>162</v>
       </c>
+      <c r="AMJ178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="n">
@@ -17761,6 +17943,7 @@
       <c r="AO179" s="10" t="n">
         <v>162</v>
       </c>
+      <c r="AMJ179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="n">
@@ -17844,6 +18027,7 @@
       <c r="AO180" s="10" t="n">
         <v>165</v>
       </c>
+      <c r="AMJ180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="n">
@@ -17923,6 +18107,7 @@
       <c r="AO181" s="10" t="n">
         <v>303</v>
       </c>
+      <c r="AMJ181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="n">
@@ -18006,6 +18191,7 @@
       <c r="AO182" s="10" t="n">
         <v>167</v>
       </c>
+      <c r="AMJ182" s="0"/>
     </row>
     <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="n">
@@ -18085,6 +18271,7 @@
       <c r="AO183" s="10" t="n">
         <v>167</v>
       </c>
+      <c r="AMJ183" s="0"/>
     </row>
     <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="n">
@@ -18168,6 +18355,7 @@
       <c r="AO184" s="10" t="n">
         <v>167</v>
       </c>
+      <c r="AMJ184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="n">
@@ -18253,6 +18441,7 @@
       <c r="AO185" s="10" t="n">
         <v>501</v>
       </c>
+      <c r="AMJ185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="n">
@@ -18334,6 +18523,7 @@
       <c r="AO186" s="23" t="n">
         <v>501</v>
       </c>
+      <c r="AMJ186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="n">
@@ -18417,6 +18607,7 @@
       <c r="AO187" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="n">
@@ -18500,6 +18691,7 @@
       <c r="AO188" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ188" s="0"/>
     </row>
     <row r="189" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="n">
@@ -18583,6 +18775,7 @@
       <c r="AO189" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ189" s="0"/>
     </row>
     <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="n">
@@ -18666,6 +18859,7 @@
       <c r="AO190" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="n">
@@ -18749,6 +18943,7 @@
       <c r="AO191" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="n">
@@ -18832,6 +19027,7 @@
       <c r="AO192" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ192" s="0"/>
     </row>
     <row r="193" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="n">
@@ -18915,6 +19111,7 @@
       <c r="AO193" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ193" s="0"/>
     </row>
     <row r="194" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="n">
@@ -18998,6 +19195,7 @@
       <c r="AO194" s="10" t="n">
         <v>180</v>
       </c>
+      <c r="AMJ194" s="0"/>
     </row>
     <row r="195" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="n">
@@ -19083,6 +19281,7 @@
       <c r="AO195" s="10" t="n">
         <v>502</v>
       </c>
+      <c r="AMJ195" s="0"/>
     </row>
     <row r="196" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="n">
@@ -19164,6 +19363,7 @@
       <c r="AO196" s="23" t="n">
         <v>502</v>
       </c>
+      <c r="AMJ196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="n">
@@ -19247,6 +19447,7 @@
       <c r="AO197" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="n">
@@ -19330,6 +19531,7 @@
       <c r="AO198" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ198" s="0"/>
     </row>
     <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="n">
@@ -19413,6 +19615,7 @@
       <c r="AO199" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ199" s="0"/>
     </row>
     <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="n">
@@ -19496,6 +19699,7 @@
       <c r="AO200" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ200" s="0"/>
     </row>
     <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="n">
@@ -19579,6 +19783,7 @@
       <c r="AO201" s="10" t="n">
         <v>189</v>
       </c>
+      <c r="AMJ201" s="0"/>
     </row>
     <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="n">
@@ -19664,6 +19869,7 @@
       <c r="AO202" s="10" t="n">
         <v>503</v>
       </c>
+      <c r="AMJ202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="n">
@@ -19745,6 +19951,7 @@
       <c r="AO203" s="23" t="n">
         <v>503</v>
       </c>
+      <c r="AMJ203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="n">
@@ -19828,6 +20035,7 @@
       <c r="AO204" s="10" t="n">
         <v>197</v>
       </c>
+      <c r="AMJ204" s="0"/>
     </row>
     <row r="205" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="9" t="n">
@@ -19913,6 +20121,7 @@
       <c r="AO205" s="10" t="n">
         <v>504</v>
       </c>
+      <c r="AMJ205" s="0"/>
     </row>
     <row r="206" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="n">
@@ -19994,6 +20203,7 @@
       <c r="AO206" s="23" t="n">
         <v>504</v>
       </c>
+      <c r="AMJ206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="9" t="n">
@@ -20077,6 +20287,7 @@
       <c r="AO207" s="10" t="n">
         <v>200</v>
       </c>
+      <c r="AMJ207" s="0"/>
     </row>
     <row r="208" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="n">
@@ -20160,6 +20371,7 @@
       <c r="AO208" s="10" t="n">
         <v>200</v>
       </c>
+      <c r="AMJ208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="9" t="n">
@@ -20243,6 +20455,7 @@
       <c r="AO209" s="10" t="n">
         <v>505</v>
       </c>
+      <c r="AMJ209" s="0"/>
     </row>
     <row r="210" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="n">
@@ -20322,6 +20535,7 @@
       <c r="AO210" s="10" t="n">
         <v>311</v>
       </c>
+      <c r="AMJ210" s="0"/>
     </row>
     <row r="211" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="9" t="n">
@@ -20403,6 +20617,7 @@
       <c r="AO211" s="10" t="n">
         <v>204</v>
       </c>
+      <c r="AMJ211" s="0"/>
     </row>
     <row r="212" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="9" t="n">
@@ -20482,6 +20697,7 @@
       <c r="AO212" s="10" t="n">
         <v>204</v>
       </c>
+      <c r="AMJ212" s="0"/>
     </row>
     <row r="213" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="9" t="n">
@@ -20565,6 +20781,7 @@
       <c r="AO213" s="30" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ213" s="0"/>
     </row>
     <row r="214" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="9" t="n">
@@ -20654,6 +20871,7 @@
       <c r="AO214" s="30" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="9" t="n">
@@ -20735,6 +20953,7 @@
       <c r="AO215" s="30" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ215" s="0"/>
     </row>
     <row r="216" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="9" t="n">
@@ -20820,6 +21039,7 @@
       <c r="AO216" s="10" t="n">
         <v>209</v>
       </c>
+      <c r="AMJ216" s="0"/>
     </row>
     <row r="217" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="9" t="n">
@@ -20905,6 +21125,7 @@
       <c r="AO217" s="10" t="n">
         <v>209</v>
       </c>
+      <c r="AMJ217" s="0"/>
     </row>
     <row r="218" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="9" t="n">
@@ -20982,6 +21203,7 @@
       <c r="AO218" s="10" t="n">
         <v>209</v>
       </c>
+      <c r="AMJ218" s="0"/>
     </row>
     <row r="219" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="9" t="n">
@@ -21067,6 +21289,7 @@
       <c r="AO219" s="10" t="n">
         <v>213</v>
       </c>
+      <c r="AMJ219" s="0"/>
     </row>
     <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="9" t="n">
@@ -21152,6 +21375,7 @@
       <c r="AO220" s="10" t="n">
         <v>213</v>
       </c>
+      <c r="AMJ220" s="0"/>
     </row>
     <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="9" t="n">
@@ -21233,6 +21457,7 @@
       <c r="AO221" s="10" t="n">
         <v>209</v>
       </c>
+      <c r="AMJ221" s="0"/>
     </row>
     <row r="222" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="9" t="n">
@@ -21314,6 +21539,7 @@
       <c r="AO222" s="30" t="n">
         <v>312</v>
       </c>
+      <c r="AMJ222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="9" t="n">
@@ -21393,6 +21619,7 @@
       <c r="AO223" s="30" t="n">
         <v>301</v>
       </c>
+      <c r="AMJ223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="9" t="n">
@@ -21478,6 +21705,7 @@
       <c r="AO224" s="10" t="n">
         <v>218</v>
       </c>
+      <c r="AMJ224" s="0"/>
     </row>
     <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="9" t="n">
@@ -21547,6 +21775,7 @@
       <c r="AO225" s="14" t="n">
         <v>400</v>
       </c>
+      <c r="AMJ225" s="0"/>
     </row>
     <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="n">
@@ -21630,6 +21859,7 @@
       <c r="AO226" s="10" t="n">
         <v>220</v>
       </c>
+      <c r="AMJ226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="9" t="n">
@@ -21711,6 +21941,7 @@
       <c r="AO227" s="10" t="n">
         <v>220</v>
       </c>
+      <c r="AMJ227" s="0"/>
     </row>
     <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="9" t="n">
@@ -21794,6 +22025,7 @@
       <c r="AO228" s="10" t="n">
         <v>220</v>
       </c>
+      <c r="AMJ228" s="0"/>
     </row>
     <row r="229" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="9" t="n">
@@ -21861,6 +22093,7 @@
         <v>734</v>
       </c>
       <c r="AO229" s="10"/>
+      <c r="AMJ229" s="0"/>
     </row>
     <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="9" t="n">
@@ -21928,6 +22161,7 @@
         <v>738</v>
       </c>
       <c r="AO230" s="10"/>
+      <c r="AMJ230" s="0"/>
     </row>
     <row r="231" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="9" t="n">
@@ -21999,6 +22233,7 @@
         <v>221</v>
       </c>
       <c r="AO231" s="10"/>
+      <c r="AMJ231" s="0"/>
     </row>
     <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="9" t="n">
@@ -22070,6 +22305,7 @@
         <v>222</v>
       </c>
       <c r="AO232" s="10"/>
+      <c r="AMJ232" s="0"/>
     </row>
     <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="9" t="n">
@@ -22141,6 +22377,7 @@
         <v>223</v>
       </c>
       <c r="AO233" s="10"/>
+      <c r="AMJ233" s="0"/>
     </row>
     <row r="234" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="9" t="n">
@@ -22210,6 +22447,7 @@
         <v>752</v>
       </c>
       <c r="AO234" s="10"/>
+      <c r="AMJ234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="9" t="n">
@@ -22279,6 +22517,7 @@
         <v>218</v>
       </c>
       <c r="AO235" s="10"/>
+      <c r="AMJ235" s="0"/>
     </row>
     <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="9" t="n">
@@ -22346,6 +22585,7 @@
       </c>
       <c r="AN236" s="10"/>
       <c r="AO236" s="10"/>
+      <c r="AMJ236" s="0"/>
     </row>
     <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="9" t="n">
@@ -22413,6 +22653,7 @@
       </c>
       <c r="AN237" s="10"/>
       <c r="AO237" s="10"/>
+      <c r="AMJ237" s="0"/>
     </row>
     <row r="238" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="9" t="n">
@@ -22484,6 +22725,7 @@
         <v>131</v>
       </c>
       <c r="AO238" s="10"/>
+      <c r="AMJ238" s="0"/>
     </row>
     <row r="239" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="9" t="n">
@@ -22555,6 +22797,7 @@
         <v>140</v>
       </c>
       <c r="AO239" s="10"/>
+      <c r="AMJ239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="n">
@@ -22626,6 +22869,7 @@
         <v>151</v>
       </c>
       <c r="AO240" s="10"/>
+      <c r="AMJ240" s="0"/>
     </row>
     <row r="241" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="9" t="n">
@@ -22695,6 +22939,7 @@
       </c>
       <c r="AN241" s="10"/>
       <c r="AO241" s="10"/>
+      <c r="AMJ241" s="0"/>
     </row>
     <row r="242" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="9" t="n">
@@ -22766,6 +23011,7 @@
         <v>775</v>
       </c>
       <c r="AO242" s="10"/>
+      <c r="AMJ242" s="0"/>
     </row>
     <row r="243" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="9" t="n">
@@ -22837,6 +23083,7 @@
         <v>777</v>
       </c>
       <c r="AO243" s="10"/>
+      <c r="AMJ243" s="0"/>
     </row>
     <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="9" t="n">
@@ -22906,6 +23153,7 @@
       </c>
       <c r="AN244" s="10"/>
       <c r="AO244" s="10"/>
+      <c r="AMJ244" s="0"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="9" t="n">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1746,8 +1747,7 @@
     <t xml:space="preserve">Checked only for scene that passed Juice Display 1st</t>
   </si>
   <si>
-    <t xml:space="preserve">146
-147
+    <t xml:space="preserve">147
 148
 149
 150</t>
@@ -3021,55 +3021,55 @@
   </sheetPr>
   <dimension ref="A1:AO245"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="Z217" activeCellId="0" sqref="Z217"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AN161" activeCellId="0" sqref="AN161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.2793522267206"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="84.7327935222672"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="122.971659919028"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="85.4817813765182"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="124.14979757085"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="62.2348178137652"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3021,55 +3022,55 @@
   </sheetPr>
   <dimension ref="A1:AO245"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
-      <selection pane="bottomLeft" activeCell="AN161" activeCellId="0" sqref="AN161"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A201" activeCellId="0" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="85.4817813765182"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="124.14979757085"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="125.222672064777"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18277,9 +18278,7 @@
       <c r="AM185" s="7" t="n">
         <v>179</v>
       </c>
-      <c r="AN185" s="7" t="n">
-        <v>180</v>
-      </c>
+      <c r="AN185" s="7"/>
       <c r="AO185" s="7" t="n">
         <v>501</v>
       </c>
@@ -19107,9 +19106,7 @@
       <c r="AM195" s="7" t="n">
         <v>189</v>
       </c>
-      <c r="AN195" s="7" t="n">
-        <v>190</v>
-      </c>
+      <c r="AN195" s="7"/>
       <c r="AO195" s="7" t="n">
         <v>502</v>
       </c>
@@ -19275,7 +19272,7 @@
       </c>
       <c r="AN197" s="7"/>
       <c r="AO197" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19358,7 +19355,7 @@
       </c>
       <c r="AN198" s="7"/>
       <c r="AO198" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19441,7 +19438,7 @@
       </c>
       <c r="AN199" s="7"/>
       <c r="AO199" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19524,7 +19521,7 @@
       </c>
       <c r="AN200" s="7"/>
       <c r="AO200" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19607,7 +19604,7 @@
       </c>
       <c r="AN201" s="7"/>
       <c r="AO201" s="7" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - MT Supermarket - REG.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Supermarket Regions'!$A$1:$AO$245</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1323,10 +1324,10 @@
     <t xml:space="preserve">Добрый Уголки - Груша - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Pulpy - Tropical - 0.9L</t>
@@ -1425,10 +1426,10 @@
     <t xml:space="preserve">4607174579729</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 8</t>
+    <t xml:space="preserve">Pulpy - Watermelon-Strawberry - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Арбуз-Клубника - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Berry Smoothie - 0.11L</t>
@@ -2858,6 +2859,18 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2874,17 +2887,9 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="173" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2923,10 +2928,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3023,54 +3024,54 @@
   <dimension ref="A1:AO245"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A201" activeCellId="0" sqref="A201"/>
+      <selection pane="bottomLeft" activeCell="G127" activeCellId="0" sqref="G127:AP127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="86.2307692307692"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="125.222672064777"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="86.9797570850202"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="126.291497975708"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="39" min="39" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="40" min="40" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="42" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12447,26 +12448,26 @@
         <v>213</v>
       </c>
       <c r="F115" s="7"/>
-      <c r="G115" s="7" t="s">
+      <c r="G115" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="H115" s="11" t="s">
+      <c r="H115" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="I115" s="7" t="s">
+      <c r="I115" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J115" s="7"/>
-      <c r="K115" s="9" t="n">
+      <c r="J115" s="6"/>
+      <c r="K115" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="7" t="s">
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="O115" s="11" t="n">
-        <v>111111</v>
+      <c r="O115" s="26" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
@@ -13467,26 +13468,26 @@
         <v>213</v>
       </c>
       <c r="F127" s="7"/>
-      <c r="G127" s="7" t="s">
+      <c r="G127" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="H127" s="11" t="s">
+      <c r="H127" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="I127" s="7" t="s">
+      <c r="I127" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J127" s="7"/>
-      <c r="K127" s="9" t="n">
+      <c r="J127" s="6"/>
+      <c r="K127" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="L127" s="9"/>
-      <c r="M127" s="9"/>
-      <c r="N127" s="7" t="s">
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="O127" s="11" t="n">
-        <v>111111</v>
+      <c r="O127" s="26" t="n">
+        <v>4650075423233</v>
       </c>
       <c r="P127" s="11"/>
       <c r="Q127" s="11"/>
@@ -13825,7 +13826,7 @@
       <c r="N131" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="O131" s="24" t="s">
+      <c r="O131" s="27" t="s">
         <v>429</v>
       </c>
       <c r="P131" s="11"/>
@@ -14927,7 +14928,7 @@
       </c>
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
-      <c r="N144" s="25" t="s">
+      <c r="N144" s="28" t="s">
         <v>463</v>
       </c>
       <c r="O144" s="11" t="n">
@@ -15023,7 +15024,7 @@
       <c r="T145" s="7"/>
       <c r="U145" s="7"/>
       <c r="V145" s="7"/>
-      <c r="W145" s="26"/>
+      <c r="W145" s="29"/>
       <c r="X145" s="7"/>
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
@@ -15052,7 +15053,7 @@
       <c r="AM145" s="7" t="n">
         <v>131</v>
       </c>
-      <c r="AN145" s="27" t="s">
+      <c r="AN145" s="30" t="s">
         <v>470</v>
       </c>
       <c r="AO145" s="7" t="n">
@@ -15110,7 +15111,7 @@
       </c>
       <c r="U146" s="7"/>
       <c r="V146" s="7"/>
-      <c r="W146" s="26"/>
+      <c r="W146" s="29"/>
       <c r="X146" s="7"/>
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
@@ -15187,7 +15188,7 @@
       </c>
       <c r="U147" s="7"/>
       <c r="V147" s="7"/>
-      <c r="W147" s="26" t="s">
+      <c r="W147" s="29" t="s">
         <v>480</v>
       </c>
       <c r="X147" s="7"/>
@@ -15254,7 +15255,7 @@
       <c r="N148" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O148" s="28" t="n">
+      <c r="O148" s="26" t="n">
         <v>5449000000439</v>
       </c>
       <c r="P148" s="11" t="s">
@@ -15270,7 +15271,7 @@
       </c>
       <c r="U148" s="7"/>
       <c r="V148" s="7"/>
-      <c r="W148" s="26"/>
+      <c r="W148" s="29"/>
       <c r="X148" s="7"/>
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
@@ -15345,7 +15346,7 @@
       <c r="T149" s="7"/>
       <c r="U149" s="7"/>
       <c r="V149" s="7"/>
-      <c r="W149" s="26"/>
+      <c r="W149" s="29"/>
       <c r="X149" s="7"/>
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
@@ -15420,7 +15421,7 @@
       <c r="N150" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O150" s="28" t="n">
+      <c r="O150" s="26" t="n">
         <v>5449000000439</v>
       </c>
       <c r="P150" s="11"/>
@@ -15434,7 +15435,7 @@
       </c>
       <c r="U150" s="7"/>
       <c r="V150" s="7"/>
-      <c r="W150" s="26"/>
+      <c r="W150" s="29"/>
       <c r="X150" s="7"/>
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
@@ -15501,7 +15502,7 @@
       <c r="N151" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="O151" s="28" t="n">
+      <c r="O151" s="26" t="n">
         <v>5449000012203</v>
       </c>
       <c r="P151" s="11"/>
@@ -15515,7 +15516,7 @@
       </c>
       <c r="U151" s="7"/>
       <c r="V151" s="7"/>
-      <c r="W151" s="26"/>
+      <c r="W151" s="29"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
@@ -15579,10 +15580,10 @@
       </c>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
-      <c r="N152" s="29" t="s">
+      <c r="N152" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="O152" s="28" t="n">
+      <c r="O152" s="26" t="n">
         <v>5449000133335</v>
       </c>
       <c r="P152" s="11"/>
@@ -15595,7 +15596,7 @@
         <v>95</v>
       </c>
       <c r="U152" s="7"/>
-      <c r="V152" s="26"/>
+      <c r="V152" s="29"/>
       <c r="W152" s="7"/>
       <c r="X152" s="7"/>
       <c r="Y152" s="7"/>
@@ -15663,7 +15664,7 @@
       <c r="N153" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O153" s="28" t="n">
+      <c r="O153" s="26" t="n">
         <v>5449000052926</v>
       </c>
       <c r="P153" s="11"/>
@@ -15677,7 +15678,7 @@
       </c>
       <c r="U153" s="7"/>
       <c r="V153" s="7"/>
-      <c r="W153" s="26"/>
+      <c r="W153" s="29"/>
       <c r="X153" s="7"/>
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
@@ -15752,7 +15753,7 @@
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
       <c r="V154" s="7"/>
-      <c r="W154" s="26"/>
+      <c r="W154" s="29"/>
       <c r="X154" s="7"/>
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
@@ -15839,7 +15840,7 @@
       </c>
       <c r="U155" s="7"/>
       <c r="V155" s="7"/>
-      <c r="W155" s="26"/>
+      <c r="W155" s="29"/>
       <c r="X155" s="7"/>
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
@@ -15993,7 +15994,7 @@
       <c r="T157" s="7"/>
       <c r="U157" s="7"/>
       <c r="V157" s="7"/>
-      <c r="W157" s="26"/>
+      <c r="W157" s="29"/>
       <c r="X157" s="7"/>
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
@@ -16074,7 +16075,7 @@
       </c>
       <c r="U158" s="7"/>
       <c r="V158" s="7"/>
-      <c r="W158" s="26"/>
+      <c r="W158" s="29"/>
       <c r="X158" s="7"/>
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
@@ -16155,7 +16156,7 @@
       </c>
       <c r="U159" s="7"/>
       <c r="V159" s="7"/>
-      <c r="W159" s="26"/>
+      <c r="W159" s="29"/>
       <c r="X159" s="7"/>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -16232,7 +16233,7 @@
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
-      <c r="W160" s="26"/>
+      <c r="W160" s="29"/>
       <c r="X160" s="7"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -16321,7 +16322,7 @@
       </c>
       <c r="U161" s="7"/>
       <c r="V161" s="7"/>
-      <c r="W161" s="26"/>
+      <c r="W161" s="29"/>
       <c r="X161" s="7"/>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -16402,7 +16403,7 @@
       </c>
       <c r="U162" s="7"/>
       <c r="V162" s="7"/>
-      <c r="W162" s="26"/>
+      <c r="W162" s="29"/>
       <c r="X162" s="7"/>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -16483,7 +16484,7 @@
       </c>
       <c r="U163" s="7"/>
       <c r="V163" s="7"/>
-      <c r="W163" s="26"/>
+      <c r="W163" s="29"/>
       <c r="X163" s="7"/>
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
@@ -16564,7 +16565,7 @@
       </c>
       <c r="U164" s="7"/>
       <c r="V164" s="7"/>
-      <c r="W164" s="26"/>
+      <c r="W164" s="29"/>
       <c r="X164" s="7"/>
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
@@ -16639,7 +16640,7 @@
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
-      <c r="W165" s="26"/>
+      <c r="W165" s="29"/>
       <c r="X165" s="7"/>
       <c r="Y165" s="7"/>
       <c r="Z165" s="7"/>
@@ -16726,7 +16727,7 @@
       </c>
       <c r="U166" s="7"/>
       <c r="V166" s="7"/>
-      <c r="W166" s="26"/>
+      <c r="W166" s="29"/>
       <c r="X166" s="7"/>
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
@@ -16886,7 +16887,7 @@
       </c>
       <c r="U168" s="7"/>
       <c r="V168" s="7"/>
-      <c r="W168" s="26"/>
+      <c r="W168" s="29"/>
       <c r="X168" s="7"/>
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
@@ -16961,9 +16962,9 @@
       <c r="T169" s="7"/>
       <c r="U169" s="7"/>
       <c r="V169" s="7"/>
-      <c r="W169" s="26"/>
+      <c r="W169" s="29"/>
       <c r="X169" s="7"/>
-      <c r="Y169" s="30" t="s">
+      <c r="Y169" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z169" s="7"/>
@@ -16982,7 +16983,7 @@
       </c>
       <c r="AH169" s="7"/>
       <c r="AI169" s="7"/>
-      <c r="AJ169" s="30"/>
+      <c r="AJ169" s="24"/>
       <c r="AK169" s="7"/>
       <c r="AL169" s="7" t="n">
         <v>2</v>
@@ -17050,9 +17051,9 @@
       </c>
       <c r="U170" s="7"/>
       <c r="V170" s="7"/>
-      <c r="W170" s="26"/>
+      <c r="W170" s="29"/>
       <c r="X170" s="7"/>
-      <c r="Y170" s="30" t="s">
+      <c r="Y170" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z170" s="7"/>
@@ -17069,7 +17070,7 @@
       <c r="AG170" s="10"/>
       <c r="AH170" s="7"/>
       <c r="AI170" s="7"/>
-      <c r="AJ170" s="30"/>
+      <c r="AJ170" s="24"/>
       <c r="AK170" s="7"/>
       <c r="AL170" s="7" t="n">
         <v>3</v>
@@ -17131,7 +17132,7 @@
         <v>552</v>
       </c>
       <c r="X171" s="7"/>
-      <c r="Y171" s="30" t="s">
+      <c r="Y171" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z171" s="7"/>
@@ -17148,7 +17149,7 @@
       <c r="AG171" s="10"/>
       <c r="AH171" s="7"/>
       <c r="AI171" s="7"/>
-      <c r="AJ171" s="30"/>
+      <c r="AJ171" s="24"/>
       <c r="AK171" s="7"/>
       <c r="AL171" s="7" t="n">
         <v>3</v>
@@ -17204,9 +17205,9 @@
       <c r="T172" s="7"/>
       <c r="U172" s="7"/>
       <c r="V172" s="7"/>
-      <c r="W172" s="26"/>
+      <c r="W172" s="29"/>
       <c r="X172" s="7"/>
-      <c r="Y172" s="30" t="s">
+      <c r="Y172" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z172" s="7"/>
@@ -17223,7 +17224,7 @@
       <c r="AG172" s="10"/>
       <c r="AH172" s="7"/>
       <c r="AI172" s="7"/>
-      <c r="AJ172" s="30"/>
+      <c r="AJ172" s="24"/>
       <c r="AK172" s="7"/>
       <c r="AL172" s="7" t="n">
         <v>3</v>
@@ -17285,9 +17286,9 @@
       </c>
       <c r="U173" s="7"/>
       <c r="V173" s="7"/>
-      <c r="W173" s="26"/>
+      <c r="W173" s="29"/>
       <c r="X173" s="7"/>
-      <c r="Y173" s="30" t="s">
+      <c r="Y173" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z173" s="7"/>
@@ -17304,7 +17305,7 @@
       <c r="AG173" s="10"/>
       <c r="AH173" s="7"/>
       <c r="AI173" s="7"/>
-      <c r="AJ173" s="30"/>
+      <c r="AJ173" s="24"/>
       <c r="AK173" s="7"/>
       <c r="AL173" s="7" t="n">
         <v>4</v>
@@ -17350,7 +17351,7 @@
       <c r="N174" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="O174" s="31" t="s">
+      <c r="O174" s="32" t="s">
         <v>296</v>
       </c>
       <c r="P174" s="11"/>
@@ -17364,9 +17365,9 @@
       </c>
       <c r="U174" s="7"/>
       <c r="V174" s="7"/>
-      <c r="W174" s="26"/>
+      <c r="W174" s="29"/>
       <c r="X174" s="7"/>
-      <c r="Y174" s="30" t="s">
+      <c r="Y174" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z174" s="7"/>
@@ -17383,7 +17384,7 @@
       <c r="AG174" s="10"/>
       <c r="AH174" s="7"/>
       <c r="AI174" s="7"/>
-      <c r="AJ174" s="30"/>
+      <c r="AJ174" s="24"/>
       <c r="AK174" s="7"/>
       <c r="AL174" s="7" t="n">
         <v>4</v>
@@ -17429,7 +17430,7 @@
       <c r="N175" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="O175" s="31" t="s">
+      <c r="O175" s="32" t="s">
         <v>222</v>
       </c>
       <c r="P175" s="11"/>
@@ -17443,9 +17444,9 @@
       </c>
       <c r="U175" s="7"/>
       <c r="V175" s="7"/>
-      <c r="W175" s="26"/>
+      <c r="W175" s="29"/>
       <c r="X175" s="7"/>
-      <c r="Y175" s="30" t="s">
+      <c r="Y175" s="24" t="s">
         <v>78</v>
       </c>
       <c r="Z175" s="7"/>
@@ -17462,7 +17463,7 @@
       <c r="AG175" s="10"/>
       <c r="AH175" s="7"/>
       <c r="AI175" s="7"/>
-      <c r="AJ175" s="30"/>
+      <c r="AJ175" s="24"/>
       <c r="AK175" s="7"/>
       <c r="AL175" s="7" t="n">
         <v>4</v>
@@ -17518,9 +17519,9 @@
       <c r="T176" s="7"/>
       <c r="U176" s="7"/>
       <c r="V176" s="7"/>
-      <c r="W176" s="26"/>
+      <c r="W176" s="29"/>
       <c r="X176" s="7"/>
-      <c r="Y176" s="30"/>
+      <c r="Y176" s="24"/>
       <c r="Z176" s="7"/>
       <c r="AA176" s="7"/>
       <c r="AB176" s="7" t="n">
@@ -17605,9 +17606,9 @@
       </c>
       <c r="U177" s="7"/>
       <c r="V177" s="7"/>
-      <c r="W177" s="26"/>
+      <c r="W177" s="29"/>
       <c r="X177" s="7"/>
-      <c r="Y177" s="30"/>
+      <c r="Y177" s="24"/>
       <c r="Z177" s="7"/>
       <c r="AA177" s="7"/>
       <c r="AB177" s="7" t="n">
@@ -17686,7 +17687,7 @@
         <v>569</v>
       </c>
       <c r="X178" s="7"/>
-      <c r="Y178" s="30"/>
+      <c r="Y178" s="24"/>
       <c r="Z178" s="7"/>
       <c r="AA178" s="7"/>
       <c r="AB178" s="7" t="n">
@@ -17759,9 +17760,9 @@
       <c r="T179" s="7"/>
       <c r="U179" s="7"/>
       <c r="V179" s="7"/>
-      <c r="W179" s="26"/>
+      <c r="W179" s="29"/>
       <c r="X179" s="7"/>
-      <c r="Y179" s="30"/>
+      <c r="Y179" s="24"/>
       <c r="Z179" s="7"/>
       <c r="AA179" s="7"/>
       <c r="AB179" s="7" t="n">
@@ -17842,9 +17843,9 @@
       </c>
       <c r="U180" s="7"/>
       <c r="V180" s="7"/>
-      <c r="W180" s="26"/>
+      <c r="W180" s="29"/>
       <c r="X180" s="7"/>
-      <c r="Y180" s="30"/>
+      <c r="Y180" s="24"/>
       <c r="Z180" s="7"/>
       <c r="AA180" s="7"/>
       <c r="AB180" s="7" t="n">
@@ -17919,7 +17920,7 @@
       <c r="T181" s="7"/>
       <c r="U181" s="7"/>
       <c r="V181" s="7"/>
-      <c r="W181" s="26"/>
+      <c r="W181" s="29"/>
       <c r="X181" s="7"/>
       <c r="Y181" s="7"/>
       <c r="Z181" s="7"/>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="U182" s="7"/>
       <c r="V182" s="7"/>
-      <c r="W182" s="26"/>
+      <c r="W182" s="29"/>
       <c r="X182" s="7"/>
       <c r="Y182" s="7"/>
       <c r="Z182" s="7"/>
@@ -18166,7 +18167,7 @@
       </c>
       <c r="U184" s="7"/>
       <c r="V184" s="7"/>
-      <c r="W184" s="26"/>
+      <c r="W184" s="29"/>
       <c r="X184" s="7"/>
       <c r="Y184" s="7"/>
       <c r="Z184" s="7"/>
@@ -18360,7 +18361,7 @@
       <c r="AN186" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="AO186" s="25" t="n">
+      <c r="AO186" s="28" t="n">
         <v>501</v>
       </c>
     </row>
@@ -19188,7 +19189,7 @@
       <c r="AN196" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="AO196" s="25" t="n">
+      <c r="AO196" s="28" t="n">
         <v>502</v>
       </c>
     </row>
@@ -19769,7 +19770,7 @@
       <c r="AN203" s="20" t="s">
         <v>636</v>
       </c>
-      <c r="AO203" s="25" t="n">
+      <c r="AO203" s="28" t="n">
         <v>503</v>
       </c>
     </row>
@@ -19808,7 +19809,7 @@
       <c r="N204" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="O204" s="28" t="n">
+      <c r="O204" s="26" t="n">
         <v>5449000005489</v>
       </c>
       <c r="P204" s="11"/>
@@ -20018,7 +20019,7 @@
       <c r="AN206" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="AO206" s="25" t="n">
+      <c r="AO206" s="28" t="n">
         <v>504</v>
       </c>
     </row>
@@ -20057,7 +20058,7 @@
       <c r="N207" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="O207" s="28" t="n">
+      <c r="O207" s="26" t="n">
         <v>4607042431722</v>
       </c>
       <c r="P207" s="11"/>
@@ -20137,7 +20138,7 @@
       </c>
       <c r="L208" s="9"/>
       <c r="M208" s="9"/>
-      <c r="N208" s="25" t="s">
+      <c r="N208" s="28" t="s">
         <v>271</v>
       </c>
       <c r="O208" s="19" t="s">
@@ -20589,7 +20590,7 @@
         <v>207</v>
       </c>
       <c r="AN213" s="7"/>
-      <c r="AO213" s="32" t="n">
+      <c r="AO213" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20678,7 +20679,7 @@
         <v>208</v>
       </c>
       <c r="AN214" s="7"/>
-      <c r="AO214" s="32" t="n">
+      <c r="AO214" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20742,7 +20743,7 @@
       <c r="AG215" s="10" t="n">
         <v>0.01625</v>
       </c>
-      <c r="AH215" s="31"/>
+      <c r="AH215" s="32"/>
       <c r="AI215" s="7"/>
       <c r="AJ215" s="7" t="s">
         <v>672</v>
@@ -20759,7 +20760,7 @@
       <c r="AN215" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="AO215" s="32" t="n">
+      <c r="AO215" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -20817,7 +20818,7 @@
       <c r="Y216" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="Z216" s="33" t="s">
+      <c r="Z216" s="34" t="s">
         <v>684</v>
       </c>
       <c r="AA216" s="7"/>
@@ -21338,7 +21339,7 @@
         <v>217</v>
       </c>
       <c r="AN222" s="7"/>
-      <c r="AO222" s="32" t="n">
+      <c r="AO222" s="33" t="n">
         <v>312</v>
       </c>
     </row>
@@ -21355,10 +21356,10 @@
       <c r="D223" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="E223" s="32" t="s">
+      <c r="E223" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F223" s="32"/>
+      <c r="F223" s="33"/>
       <c r="G223" s="7" t="s">
         <v>703</v>
       </c>
@@ -21417,7 +21418,7 @@
       <c r="AN223" s="20" t="s">
         <v>705</v>
       </c>
-      <c r="AO223" s="32" t="n">
+      <c r="AO223" s="33" t="n">
         <v>301</v>
       </c>
     </row>
@@ -21434,10 +21435,10 @@
       <c r="D224" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="E224" s="32" t="s">
+      <c r="E224" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F224" s="32"/>
+      <c r="F224" s="33"/>
       <c r="G224" s="7" t="s">
         <v>706</v>
       </c>
@@ -21591,13 +21592,13 @@
       <c r="E226" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="F226" s="34" t="s">
+      <c r="F226" s="35" t="s">
         <v>715</v>
       </c>
-      <c r="G226" s="34" t="s">
+      <c r="G226" s="35" t="s">
         <v>716</v>
       </c>
-      <c r="H226" s="34" t="s">
+      <c r="H226" s="35" t="s">
         <v>717</v>
       </c>
       <c r="I226" s="7" t="s">
@@ -21610,7 +21611,7 @@
       <c r="L226" s="9"/>
       <c r="M226" s="9"/>
       <c r="N226" s="7"/>
-      <c r="O226" s="35" t="s">
+      <c r="O226" s="36" t="s">
         <v>719</v>
       </c>
       <c r="P226" s="11"/>
@@ -21627,7 +21628,7 @@
       <c r="W226" s="7"/>
       <c r="X226" s="7"/>
       <c r="Y226" s="7"/>
-      <c r="Z226" s="35" t="s">
+      <c r="Z226" s="36" t="s">
         <v>719</v>
       </c>
       <c r="AA226" s="7"/>
@@ -21755,10 +21756,10 @@
       <c r="E228" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="F228" s="34" t="s">
+      <c r="F228" s="35" t="s">
         <v>723</v>
       </c>
-      <c r="G228" s="34" t="s">
+      <c r="G228" s="35" t="s">
         <v>724</v>
       </c>
       <c r="H228" s="7" t="s">
@@ -21835,14 +21836,14 @@
       <c r="D229" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E229" s="32" t="s">
+      <c r="E229" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32" t="s">
+      <c r="F229" s="33"/>
+      <c r="G229" s="33" t="s">
         <v>729</v>
       </c>
-      <c r="H229" s="32" t="s">
+      <c r="H229" s="33" t="s">
         <v>730</v>
       </c>
       <c r="I229" s="7" t="s">
@@ -21909,7 +21910,7 @@
       <c r="G230" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="H230" s="25" t="s">
+      <c r="H230" s="28" t="s">
         <v>737</v>
       </c>
       <c r="I230" s="7" t="s">
@@ -21969,14 +21970,14 @@
       <c r="D231" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E231" s="32" t="s">
+      <c r="E231" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="F231" s="32"/>
-      <c r="G231" s="32" t="s">
+      <c r="F231" s="33"/>
+      <c r="G231" s="33" t="s">
         <v>740</v>
       </c>
-      <c r="H231" s="32" t="s">
+      <c r="H231" s="33" t="s">
         <v>711</v>
       </c>
       <c r="I231" s="7" t="s">
@@ -21991,7 +21992,7 @@
       <c r="N231" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="O231" s="36" t="s">
+      <c r="O231" s="37" t="s">
         <v>744</v>
       </c>
       <c r="P231" s="7"/>
@@ -22040,17 +22041,17 @@
       <c r="D232" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E232" s="32" t="s">
+      <c r="E232" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="F232" s="32"/>
-      <c r="G232" s="37" t="s">
+      <c r="F232" s="33"/>
+      <c r="G232" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="H232" s="37" t="s">
+      <c r="H232" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="I232" s="38" t="s">
+      <c r="I232" s="39" t="s">
         <v>741</v>
       </c>
       <c r="J232" s="7" t="s">
@@ -22062,7 +22063,7 @@
       <c r="N232" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="O232" s="36" t="s">
+      <c r="O232" s="37" t="s">
         <v>745</v>
       </c>
       <c r="P232" s="7"/>
@@ -22111,17 +22112,17 @@
       <c r="D233" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E233" s="32" t="s">
+      <c r="E233" s="33" t="s">
         <v>739</v>
       </c>
-      <c r="F233" s="32"/>
-      <c r="G233" s="37" t="s">
+      <c r="F233" s="33"/>
+      <c r="G233" s="38" t="s">
         <v>740</v>
       </c>
-      <c r="H233" s="37" t="s">
+      <c r="H233" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="I233" s="38" t="s">
+      <c r="I233" s="39" t="s">
         <v>741</v>
       </c>
       <c r="J233" s="7" t="s">
@@ -22133,7 +22134,7 @@
       <c r="N233" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="O233" s="36" t="s">
+      <c r="O233" s="37" t="s">
         <v>746</v>
       </c>
       <c r="P233" s="7"/>
@@ -22182,14 +22183,14 @@
       <c r="D234" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E234" s="32" t="s">
+      <c r="E234" s="33" t="s">
         <v>747</v>
       </c>
-      <c r="F234" s="32"/>
-      <c r="G234" s="32" t="s">
+      <c r="F234" s="33"/>
+      <c r="G234" s="33" t="s">
         <v>748</v>
       </c>
-      <c r="H234" s="32" t="s">
+      <c r="H234" s="33" t="s">
         <v>749</v>
       </c>
       <c r="I234" s="7" t="s">
@@ -22214,7 +22215,7 @@
       <c r="V234" s="7"/>
       <c r="W234" s="7"/>
       <c r="X234" s="7"/>
-      <c r="Y234" s="38" t="s">
+      <c r="Y234" s="39" t="s">
         <v>658</v>
       </c>
       <c r="Z234" s="7"/>
@@ -22251,14 +22252,14 @@
       <c r="D235" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E235" s="32" t="s">
+      <c r="E235" s="33" t="s">
         <v>753</v>
       </c>
-      <c r="F235" s="32"/>
-      <c r="G235" s="32" t="s">
+      <c r="F235" s="33"/>
+      <c r="G235" s="33" t="s">
         <v>754</v>
       </c>
-      <c r="H235" s="32" t="s">
+      <c r="H235" s="33" t="s">
         <v>755</v>
       </c>
       <c r="I235" s="7" t="s">
@@ -22283,7 +22284,7 @@
       <c r="V235" s="7"/>
       <c r="W235" s="7"/>
       <c r="X235" s="7"/>
-      <c r="Y235" s="38" t="s">
+      <c r="Y235" s="39" t="s">
         <v>757</v>
       </c>
       <c r="Z235" s="7"/>
@@ -22320,14 +22321,14 @@
       <c r="D236" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E236" s="32" t="s">
+      <c r="E236" s="33" t="s">
         <v>758</v>
       </c>
-      <c r="F236" s="32"/>
-      <c r="G236" s="32" t="s">
+      <c r="F236" s="33"/>
+      <c r="G236" s="33" t="s">
         <v>759</v>
       </c>
-      <c r="H236" s="32" t="s">
+      <c r="H236" s="33" t="s">
         <v>760</v>
       </c>
       <c r="I236" s="7" t="s">
@@ -22387,14 +22388,14 @@
       <c r="D237" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E237" s="32" t="s">
+      <c r="E237" s="33" t="s">
         <v>764</v>
       </c>
-      <c r="F237" s="32"/>
-      <c r="G237" s="32" t="s">
+      <c r="F237" s="33"/>
+      <c r="G237" s="33" t="s">
         <v>765</v>
       </c>
-      <c r="H237" s="32" t="s">
+      <c r="H237" s="33" t="s">
         <v>766</v>
       </c>
       <c r="I237" s="7" t="s">
@@ -22454,14 +22455,14 @@
       <c r="D238" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E238" s="32" t="s">
+      <c r="E238" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F238" s="32"/>
-      <c r="G238" s="32" t="s">
+      <c r="F238" s="33"/>
+      <c r="G238" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H238" s="32" t="s">
+      <c r="H238" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I238" s="7" t="s">
@@ -22525,14 +22526,14 @@
       <c r="D239" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E239" s="32" t="s">
+      <c r="E239" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F239" s="32"/>
-      <c r="G239" s="32" t="s">
+      <c r="F239" s="33"/>
+      <c r="G239" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H239" s="32" t="s">
+      <c r="H239" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I239" s="7" t="s">
@@ -22596,14 +22597,14 @@
       <c r="D240" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E240" s="32" t="s">
+      <c r="E240" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F240" s="32"/>
-      <c r="G240" s="32" t="s">
+      <c r="F240" s="33"/>
+      <c r="G240" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H240" s="32" t="s">
+      <c r="H240" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I240" s="7" t="s">
@@ -22667,14 +22668,14 @@
       <c r="D241" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E241" s="32" t="s">
+      <c r="E241" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F241" s="32"/>
-      <c r="G241" s="32" t="s">
+      <c r="F241" s="33"/>
+      <c r="G241" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H241" s="32" t="s">
+      <c r="H241" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I241" s="7" t="s">
@@ -22689,7 +22690,7 @@
       <c r="N241" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="O241" s="39" t="s">
+      <c r="O241" s="40" t="s">
         <v>773</v>
       </c>
       <c r="P241" s="7"/>
@@ -22736,14 +22737,14 @@
       <c r="D242" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E242" s="32" t="s">
+      <c r="E242" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F242" s="32"/>
-      <c r="G242" s="32" t="s">
+      <c r="F242" s="33"/>
+      <c r="G242" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H242" s="32" t="s">
+      <c r="H242" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I242" s="7" t="s">
@@ -22758,7 +22759,7 @@
       <c r="N242" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="O242" s="39" t="s">
+      <c r="O242" s="40" t="s">
         <v>774</v>
       </c>
       <c r="P242" s="7"/>
@@ -22807,14 +22808,14 @@
       <c r="D243" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E243" s="32" t="s">
+      <c r="E243" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F243" s="32"/>
-      <c r="G243" s="32" t="s">
+      <c r="F243" s="33"/>
+      <c r="G243" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H243" s="32" t="s">
+      <c r="H243" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I243" s="7" t="s">
@@ -22878,14 +22879,14 @@
       <c r="D244" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="E244" s="32" t="s">
+      <c r="E244" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="F244" s="32"/>
-      <c r="G244" s="32" t="s">
+      <c r="F244" s="33"/>
+      <c r="G244" s="33" t="s">
         <v>769</v>
       </c>
-      <c r="H244" s="32" t="s">
+      <c r="H244" s="33" t="s">
         <v>770</v>
       </c>
       <c r="I244" s="7" t="s">
@@ -22947,12 +22948,12 @@
       <c r="D245" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="E245" s="40"/>
-      <c r="F245" s="32"/>
-      <c r="G245" s="40" t="s">
+      <c r="E245" s="41"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="H245" s="40" t="s">
+      <c r="H245" s="41" t="s">
         <v>780</v>
       </c>
       <c r="I245" s="6" t="s">
@@ -22961,8 +22962,8 @@
       <c r="J245" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="K245" s="41"/>
-      <c r="L245" s="41"/>
+      <c r="K245" s="25"/>
+      <c r="L245" s="25"/>
       <c r="M245" s="6"/>
       <c r="N245" s="42"/>
       <c r="O245" s="6"/>
